--- a/doc/additional files/feb_2019/Data_S1_primers.xlsx
+++ b/doc/additional files/feb_2019/Data_S1_primers.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Albi/Dropbox/Roth Lab/projects/twas_git/doc/additional files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Albi/Dropbox/Roth Lab/projects/xga_git/doc/additional files/feb_2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F258B5-11B5-2A44-A4A3-2A14BCA6A00C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46180" yWindow="860" windowWidth="33300" windowHeight="18360" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="51200" yWindow="860" windowWidth="33300" windowHeight="18360" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Barcoder Construction Primers" sheetId="11" r:id="rId1"/>
     <sheet name="Genotyping Primers" sheetId="7" r:id="rId2"/>
     <sheet name="RCP-PCR Primers" sheetId="9" r:id="rId3"/>
     <sheet name="Pool Multiplex Primers" sheetId="6" r:id="rId4"/>
+    <sheet name="Index Combos Pool Growth Assay" sheetId="12" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2084" uniqueCount="691">
   <si>
     <t>Sequence</t>
   </si>
@@ -1453,13 +1455,664 @@
   </si>
   <si>
     <t>3’ HO seq</t>
+  </si>
+  <si>
+    <t>PRIMER1</t>
+  </si>
+  <si>
+    <t>PRIMER2</t>
+  </si>
+  <si>
+    <t>LABEL</t>
+  </si>
+  <si>
+    <t>PLATE</t>
+  </si>
+  <si>
+    <t>TAG</t>
+  </si>
+  <si>
+    <t>P01_Us1</t>
+  </si>
+  <si>
+    <t>P01_Us2</t>
+  </si>
+  <si>
+    <t>T0_alpha</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
+    <t>P02_Us2</t>
+  </si>
+  <si>
+    <t>T0_A</t>
+  </si>
+  <si>
+    <t>P03_Us2</t>
+  </si>
+  <si>
+    <t>alpha5_CTRL</t>
+  </si>
+  <si>
+    <t>P04_Us2</t>
+  </si>
+  <si>
+    <t>alpha5_ITRAC</t>
+  </si>
+  <si>
+    <t>P05_Us2</t>
+  </si>
+  <si>
+    <t>alpha5_cycloh</t>
+  </si>
+  <si>
+    <t>P06_Us2</t>
+  </si>
+  <si>
+    <t>alpha5_Tamox</t>
+  </si>
+  <si>
+    <t>P07_Us2</t>
+  </si>
+  <si>
+    <t>alpha5_Fluc</t>
+  </si>
+  <si>
+    <t>P08_Us2</t>
+  </si>
+  <si>
+    <t>alpha5_MTX</t>
+  </si>
+  <si>
+    <t>P09_Us2</t>
+  </si>
+  <si>
+    <t>alpha15_CTRL</t>
+  </si>
+  <si>
+    <t>P10_Us2</t>
+  </si>
+  <si>
+    <t>alpha15_ITRAC</t>
+  </si>
+  <si>
+    <t>P11_Us2</t>
+  </si>
+  <si>
+    <t>alpha15_cycloh</t>
+  </si>
+  <si>
+    <t>P12_Us2</t>
+  </si>
+  <si>
+    <t>alpha15_Tamox</t>
+  </si>
+  <si>
+    <t>P02_Us1</t>
+  </si>
+  <si>
+    <t>alpha15_fluc</t>
+  </si>
+  <si>
+    <t>alpha15_MTX</t>
+  </si>
+  <si>
+    <t>A5_CTRL</t>
+  </si>
+  <si>
+    <t>A5_ITRAC</t>
+  </si>
+  <si>
+    <t>A5_cycloh</t>
+  </si>
+  <si>
+    <t>A5_Tamox</t>
+  </si>
+  <si>
+    <t>A5_fluc</t>
+  </si>
+  <si>
+    <t>A5_MTX</t>
+  </si>
+  <si>
+    <t>A15_CTRL</t>
+  </si>
+  <si>
+    <t>A15_ITRAC</t>
+  </si>
+  <si>
+    <t>A15_cycloh</t>
+  </si>
+  <si>
+    <t>A15_Tamox</t>
+  </si>
+  <si>
+    <t>P03_Us1</t>
+  </si>
+  <si>
+    <t>A15_fluc</t>
+  </si>
+  <si>
+    <t>A15_MTX</t>
+  </si>
+  <si>
+    <t>alpha5_CTRL2</t>
+  </si>
+  <si>
+    <t>alpha5_beauv</t>
+  </si>
+  <si>
+    <t>alpha5_cispl</t>
+  </si>
+  <si>
+    <t>alpha5_camptoth</t>
+  </si>
+  <si>
+    <t>alpha5_ketoc</t>
+  </si>
+  <si>
+    <t>alpha5_bisantr</t>
+  </si>
+  <si>
+    <t>alpha15_CTRL2</t>
+  </si>
+  <si>
+    <t>alpha15_beauv</t>
+  </si>
+  <si>
+    <t>alpha15_cispl</t>
+  </si>
+  <si>
+    <t>alpha15_camptoth</t>
+  </si>
+  <si>
+    <t>P04_Us1</t>
+  </si>
+  <si>
+    <t>alpha15_ketoc</t>
+  </si>
+  <si>
+    <t>alpha15_bisantr</t>
+  </si>
+  <si>
+    <t>A5_CTRL2</t>
+  </si>
+  <si>
+    <t>A5_beauv</t>
+  </si>
+  <si>
+    <t>A5_cispl</t>
+  </si>
+  <si>
+    <t>A5_camptoth</t>
+  </si>
+  <si>
+    <t>A5_ketoc</t>
+  </si>
+  <si>
+    <t>A5_bisantr</t>
+  </si>
+  <si>
+    <t>A15_CTRL2</t>
+  </si>
+  <si>
+    <t>A15_beauv</t>
+  </si>
+  <si>
+    <t>A15_cispl</t>
+  </si>
+  <si>
+    <t>A15_camptoth</t>
+  </si>
+  <si>
+    <t>P05_Us1</t>
+  </si>
+  <si>
+    <t>A15_ketoc</t>
+  </si>
+  <si>
+    <t>A15_bisantr</t>
+  </si>
+  <si>
+    <t>alpha5_CTRL3</t>
+  </si>
+  <si>
+    <t>alpha5_colch</t>
+  </si>
+  <si>
+    <t>alpha5_imat</t>
+  </si>
+  <si>
+    <t>alpha5_mitox</t>
+  </si>
+  <si>
+    <t>alpha5_micon</t>
+  </si>
+  <si>
+    <t>alpha5_valin</t>
+  </si>
+  <si>
+    <t>alpha5_benom</t>
+  </si>
+  <si>
+    <t>alpha15_CTRL3</t>
+  </si>
+  <si>
+    <t>alpha15_colch</t>
+  </si>
+  <si>
+    <t>alpha15_imat</t>
+  </si>
+  <si>
+    <t>P06_Us1</t>
+  </si>
+  <si>
+    <t>alpha15_mitox</t>
+  </si>
+  <si>
+    <t>alpha15_micon</t>
+  </si>
+  <si>
+    <t>alpha15_valin</t>
+  </si>
+  <si>
+    <t>alpha15_benom</t>
+  </si>
+  <si>
+    <t>A5_CTRL3</t>
+  </si>
+  <si>
+    <t>A5_colch</t>
+  </si>
+  <si>
+    <t>A5_imat</t>
+  </si>
+  <si>
+    <t>A5_mitox</t>
+  </si>
+  <si>
+    <t>A5_micon</t>
+  </si>
+  <si>
+    <t>A5_valin</t>
+  </si>
+  <si>
+    <t>A5_benom</t>
+  </si>
+  <si>
+    <t>A15_CTRL3</t>
+  </si>
+  <si>
+    <t>P07_Us1</t>
+  </si>
+  <si>
+    <t>A15_colch</t>
+  </si>
+  <si>
+    <t>A15_imat</t>
+  </si>
+  <si>
+    <t>A15_mitox</t>
+  </si>
+  <si>
+    <t>A15_micon</t>
+  </si>
+  <si>
+    <t>A15_valin</t>
+  </si>
+  <si>
+    <t>A15_benom</t>
+  </si>
+  <si>
+    <t>P01_Ds1</t>
+  </si>
+  <si>
+    <t>P01_Ds2</t>
+  </si>
+  <si>
+    <t>T0_alpha_1</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>DN</t>
+  </si>
+  <si>
+    <t>P02_Ds2</t>
+  </si>
+  <si>
+    <t>T0_A_1</t>
+  </si>
+  <si>
+    <t>P03_Ds2</t>
+  </si>
+  <si>
+    <t>P04_Ds2</t>
+  </si>
+  <si>
+    <t>P05_Ds2</t>
+  </si>
+  <si>
+    <t>P06_Ds2</t>
+  </si>
+  <si>
+    <t>P07_Ds2</t>
+  </si>
+  <si>
+    <t>P08_Ds2</t>
+  </si>
+  <si>
+    <t>P09_Ds2</t>
+  </si>
+  <si>
+    <t>P10_Ds2</t>
+  </si>
+  <si>
+    <t>P11_Ds2</t>
+  </si>
+  <si>
+    <t>P12_Ds2</t>
+  </si>
+  <si>
+    <t>P02_Ds1</t>
+  </si>
+  <si>
+    <t>P03_Ds1</t>
+  </si>
+  <si>
+    <t>P04_Ds1</t>
+  </si>
+  <si>
+    <t>P05_Ds1</t>
+  </si>
+  <si>
+    <t>P06_Ds1</t>
+  </si>
+  <si>
+    <t>P07_Ds1</t>
+  </si>
+  <si>
+    <t>Run 1: T = 0, 5, 15</t>
+  </si>
+  <si>
+    <t>Run 2: T = 0, 10, 20</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>P08_Us1</t>
+  </si>
+  <si>
+    <t>A10_CTRL</t>
+  </si>
+  <si>
+    <t>A10_ITRAC</t>
+  </si>
+  <si>
+    <t>A10_cycloh</t>
+  </si>
+  <si>
+    <t>A10_Tamox</t>
+  </si>
+  <si>
+    <t>A10_fluc</t>
+  </si>
+  <si>
+    <t>A10_MTX</t>
+  </si>
+  <si>
+    <t>A20_CTRL</t>
+  </si>
+  <si>
+    <t>A20_ITRAC</t>
+  </si>
+  <si>
+    <t>A20_cycloh</t>
+  </si>
+  <si>
+    <t>A20_Tamox</t>
+  </si>
+  <si>
+    <t>P09_Us1</t>
+  </si>
+  <si>
+    <t>A20_fluc</t>
+  </si>
+  <si>
+    <t>A20_MTX</t>
+  </si>
+  <si>
+    <t>P10_Us1</t>
+  </si>
+  <si>
+    <t>A10_CTRL2</t>
+  </si>
+  <si>
+    <t>A10_beauv</t>
+  </si>
+  <si>
+    <t>A10_cispl</t>
+  </si>
+  <si>
+    <t>A10_camptoth</t>
+  </si>
+  <si>
+    <t>A10_ketoc</t>
+  </si>
+  <si>
+    <t>A10_bisantr</t>
+  </si>
+  <si>
+    <t>A20_CTRL2</t>
+  </si>
+  <si>
+    <t>A20_beauv</t>
+  </si>
+  <si>
+    <t>A20_cispl</t>
+  </si>
+  <si>
+    <t>A20_camptoth</t>
+  </si>
+  <si>
+    <t>P11_Us1</t>
+  </si>
+  <si>
+    <t>A20_ketoc</t>
+  </si>
+  <si>
+    <t>A20_bisantr</t>
+  </si>
+  <si>
+    <t>P12_Us1</t>
+  </si>
+  <si>
+    <t>A10_CTRL3</t>
+  </si>
+  <si>
+    <t>A10_colch</t>
+  </si>
+  <si>
+    <t>A10_imat</t>
+  </si>
+  <si>
+    <t>A10_mitox</t>
+  </si>
+  <si>
+    <t>A10_micon</t>
+  </si>
+  <si>
+    <t>A10_valin</t>
+  </si>
+  <si>
+    <t>A10_benom</t>
+  </si>
+  <si>
+    <t>A20_CTRL3</t>
+  </si>
+  <si>
+    <t>A20_colch</t>
+  </si>
+  <si>
+    <t>A20_imat</t>
+  </si>
+  <si>
+    <t>A20_mitox</t>
+  </si>
+  <si>
+    <t>A20_micon</t>
+  </si>
+  <si>
+    <t>A20_valin</t>
+  </si>
+  <si>
+    <t>A20_benom</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>P08_Ds1</t>
+  </si>
+  <si>
+    <t>P09_Ds1</t>
+  </si>
+  <si>
+    <t>P10_Ds1</t>
+  </si>
+  <si>
+    <t>P11_Ds1</t>
+  </si>
+  <si>
+    <t>P12_Ds1</t>
+  </si>
+  <si>
+    <t>alpha10_CTRL</t>
+  </si>
+  <si>
+    <t>alpha10_ITRAC</t>
+  </si>
+  <si>
+    <t>alpha10_cycloh</t>
+  </si>
+  <si>
+    <t>alpha10_Tamox</t>
+  </si>
+  <si>
+    <t>alpha10_Fluc</t>
+  </si>
+  <si>
+    <t>alpha10_MTX</t>
+  </si>
+  <si>
+    <t>alpha20_CTRL</t>
+  </si>
+  <si>
+    <t>alpha20_ITRAC</t>
+  </si>
+  <si>
+    <t>alpha20_cycloh</t>
+  </si>
+  <si>
+    <t>alpha20_Tamox</t>
+  </si>
+  <si>
+    <t>alpha20_fluc</t>
+  </si>
+  <si>
+    <t>alpha20_MTX</t>
+  </si>
+  <si>
+    <t>alpha10_CTRL2</t>
+  </si>
+  <si>
+    <t>alpha10_beauv</t>
+  </si>
+  <si>
+    <t>alpha10_cispl</t>
+  </si>
+  <si>
+    <t>alpha10_camptoth</t>
+  </si>
+  <si>
+    <t>alpha10_ketoc</t>
+  </si>
+  <si>
+    <t>alpha10_bisantr</t>
+  </si>
+  <si>
+    <t>alpha20_CTRL2</t>
+  </si>
+  <si>
+    <t>alpha20_beauv</t>
+  </si>
+  <si>
+    <t>alpha20_cispl</t>
+  </si>
+  <si>
+    <t>alpha20_camptoth</t>
+  </si>
+  <si>
+    <t>alpha20_ketoc</t>
+  </si>
+  <si>
+    <t>alpha20_bisantr</t>
+  </si>
+  <si>
+    <t>alpha10_CTRL3</t>
+  </si>
+  <si>
+    <t>alpha10_colch</t>
+  </si>
+  <si>
+    <t>alpha10_imat</t>
+  </si>
+  <si>
+    <t>alpha10_mitox</t>
+  </si>
+  <si>
+    <t>alpha10_micon</t>
+  </si>
+  <si>
+    <t>alpha10_valin</t>
+  </si>
+  <si>
+    <t>alpha10_benom</t>
+  </si>
+  <si>
+    <t>alpha20_CTRL3</t>
+  </si>
+  <si>
+    <t>alpha20_colch</t>
+  </si>
+  <si>
+    <t>alpha20_imat</t>
+  </si>
+  <si>
+    <t>alpha20_mitox</t>
+  </si>
+  <si>
+    <t>alpha20_micon</t>
+  </si>
+  <si>
+    <t>alpha20_valin</t>
+  </si>
+  <si>
+    <t>alpha20_benom</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1502,37 +2155,44 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Courier New"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="13"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Helvetica"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Monaco"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Times"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -1540,11 +2200,13 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Times"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="13"/>
       <color theme="1"/>
       <name val="Courier New"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -1552,11 +2214,13 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Times"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Courier New"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -1645,6 +2309,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1912,21 +2579,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="30.1640625" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="109.6640625" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="10.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1939,7 +2606,7 @@
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
         <v>140</v>
       </c>
@@ -1952,7 +2619,7 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
         <v>143</v>
       </c>
@@ -1965,7 +2632,7 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
         <v>146</v>
       </c>
@@ -1978,7 +2645,7 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
         <v>147</v>
       </c>
@@ -1991,7 +2658,7 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="4" t="s">
         <v>150</v>
       </c>
@@ -2004,7 +2671,7 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="4" t="s">
         <v>152</v>
       </c>
@@ -2017,7 +2684,7 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="4" t="s">
         <v>163</v>
       </c>
@@ -2030,7 +2697,7 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
         <v>164</v>
       </c>
@@ -2043,7 +2710,7 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="4" t="s">
         <v>457</v>
       </c>
@@ -2056,7 +2723,7 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="4" t="s">
         <v>458</v>
       </c>
@@ -2069,7 +2736,7 @@
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="4" t="s">
         <v>460</v>
       </c>
@@ -2082,7 +2749,7 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="4" t="s">
         <v>461</v>
       </c>
@@ -2095,7 +2762,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="4" t="s">
         <v>5</v>
       </c>
@@ -2108,7 +2775,7 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
@@ -2121,7 +2788,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="4" t="s">
         <v>466</v>
       </c>
@@ -2134,7 +2801,7 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="4" t="s">
         <v>467</v>
       </c>
@@ -2147,63 +2814,63 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -2216,14 +2883,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63:XFD94"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="46.5" bestFit="1" customWidth="1"/>
@@ -2231,7 +2898,7 @@
     <col min="10" max="10" width="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2242,7 +2909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2253,7 +2920,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2264,7 +2931,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2275,7 +2942,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -2286,7 +2953,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2297,7 +2964,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2308,7 +2975,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2319,7 +2986,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -2330,7 +2997,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -2341,7 +3008,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -2352,7 +3019,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" s="5" t="s">
         <v>472</v>
       </c>
@@ -2363,7 +3030,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" s="5" t="s">
         <v>473</v>
       </c>
@@ -2374,7 +3041,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -2385,7 +3052,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="17">
       <c r="A15" s="6" t="s">
         <v>412</v>
       </c>
@@ -2396,7 +3063,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="17">
       <c r="A16" s="6" t="s">
         <v>413</v>
       </c>
@@ -2407,7 +3074,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="17">
       <c r="A17" s="7" t="s">
         <v>414</v>
       </c>
@@ -2418,7 +3085,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="17">
       <c r="A18" s="7" t="s">
         <v>415</v>
       </c>
@@ -2429,7 +3096,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="17">
       <c r="A19" s="7" t="s">
         <v>416</v>
       </c>
@@ -2440,7 +3107,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="17">
       <c r="A20" s="7" t="s">
         <v>417</v>
       </c>
@@ -2451,7 +3118,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="17">
       <c r="A21" s="7" t="s">
         <v>418</v>
       </c>
@@ -2462,7 +3129,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="17">
       <c r="A22" s="7" t="s">
         <v>419</v>
       </c>
@@ -2473,7 +3140,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="17">
       <c r="A23" s="7" t="s">
         <v>420</v>
       </c>
@@ -2484,7 +3151,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="17">
       <c r="A24" s="7" t="s">
         <v>421</v>
       </c>
@@ -2495,7 +3162,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="17">
       <c r="A25" s="7" t="s">
         <v>422</v>
       </c>
@@ -2506,7 +3173,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="17">
       <c r="A26" s="7" t="s">
         <v>423</v>
       </c>
@@ -2517,7 +3184,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="17">
       <c r="A27" s="7" t="s">
         <v>424</v>
       </c>
@@ -2528,7 +3195,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="17">
       <c r="A28" s="7" t="s">
         <v>425</v>
       </c>
@@ -2539,7 +3206,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="17">
       <c r="A29" s="7" t="s">
         <v>426</v>
       </c>
@@ -2550,7 +3217,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="17">
       <c r="A30" s="7" t="s">
         <v>427</v>
       </c>
@@ -2561,7 +3228,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>108</v>
       </c>
@@ -2572,7 +3239,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>109</v>
       </c>
@@ -2583,7 +3250,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>110</v>
       </c>
@@ -2594,7 +3261,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>111</v>
       </c>
@@ -2605,7 +3272,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>112</v>
       </c>
@@ -2616,7 +3283,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>113</v>
       </c>
@@ -2627,7 +3294,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>114</v>
       </c>
@@ -2638,7 +3305,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>115</v>
       </c>
@@ -2649,7 +3316,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>116</v>
       </c>
@@ -2660,7 +3327,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>117</v>
       </c>
@@ -2671,7 +3338,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>118</v>
       </c>
@@ -2682,7 +3349,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>119</v>
       </c>
@@ -2693,7 +3360,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>120</v>
       </c>
@@ -2704,7 +3371,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>121</v>
       </c>
@@ -2715,7 +3382,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>122</v>
       </c>
@@ -2726,7 +3393,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>123</v>
       </c>
@@ -2737,7 +3404,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>124</v>
       </c>
@@ -2748,7 +3415,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>125</v>
       </c>
@@ -2759,7 +3426,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>126</v>
       </c>
@@ -2770,7 +3437,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>127</v>
       </c>
@@ -2781,7 +3448,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>128</v>
       </c>
@@ -2792,7 +3459,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>129</v>
       </c>
@@ -2803,7 +3470,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>130</v>
       </c>
@@ -2814,7 +3481,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>131</v>
       </c>
@@ -2825,7 +3492,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>132</v>
       </c>
@@ -2836,7 +3503,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>133</v>
       </c>
@@ -2847,7 +3514,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>134</v>
       </c>
@@ -2858,7 +3525,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>135</v>
       </c>
@@ -2869,7 +3536,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>136</v>
       </c>
@@ -2880,7 +3547,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>137</v>
       </c>
@@ -2891,7 +3558,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>138</v>
       </c>
@@ -2902,7 +3569,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>139</v>
       </c>
@@ -2919,46 +3586,46 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B313"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" workbookViewId="0">
+    <sheetView topLeftCell="A238" workbookViewId="0">
       <selection activeCell="A127" sqref="A127"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="19">
       <c r="A1" s="11" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="9" t="s">
         <v>170</v>
       </c>
       <c r="B2" s="8"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="9" t="s">
         <v>171</v>
       </c>
       <c r="B3" s="8"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="B4" s="8"/>
     </row>
-    <row r="5" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="19">
       <c r="A5" s="16" t="s">
         <v>452</v>
       </c>
       <c r="B5" s="8"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="8">
         <v>1</v>
       </c>
@@ -2966,7 +3633,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="8">
         <v>2</v>
       </c>
@@ -2974,7 +3641,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="8">
         <v>3</v>
       </c>
@@ -2982,7 +3649,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="8">
         <v>4</v>
       </c>
@@ -2990,7 +3657,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="8">
         <v>5</v>
       </c>
@@ -2998,7 +3665,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="8">
         <v>6</v>
       </c>
@@ -3006,7 +3673,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="8">
         <v>7</v>
       </c>
@@ -3014,7 +3681,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="8">
         <v>8</v>
       </c>
@@ -3022,7 +3689,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="8">
         <v>9</v>
       </c>
@@ -3030,7 +3697,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="8">
         <v>10</v>
       </c>
@@ -3038,7 +3705,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" s="8">
         <v>11</v>
       </c>
@@ -3046,7 +3713,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="8">
         <v>12</v>
       </c>
@@ -3054,7 +3721,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" s="8">
         <v>13</v>
       </c>
@@ -3062,7 +3729,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" s="8">
         <v>14</v>
       </c>
@@ -3070,7 +3737,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" s="8">
         <v>15</v>
       </c>
@@ -3078,7 +3745,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" s="8">
         <v>16</v>
       </c>
@@ -3086,7 +3753,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" s="8">
         <v>17</v>
       </c>
@@ -3094,7 +3761,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" s="8">
         <v>18</v>
       </c>
@@ -3102,7 +3769,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" s="8">
         <v>19</v>
       </c>
@@ -3110,7 +3777,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" s="8">
         <v>20</v>
       </c>
@@ -3118,7 +3785,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" s="8">
         <v>21</v>
       </c>
@@ -3126,7 +3793,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" s="8">
         <v>22</v>
       </c>
@@ -3134,7 +3801,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" s="8">
         <v>23</v>
       </c>
@@ -3142,7 +3809,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" s="8">
         <v>24</v>
       </c>
@@ -3150,1179 +3817,1179 @@
         <v>428</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="B30" s="8"/>
     </row>
-    <row r="31" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="19">
       <c r="A31" s="12" t="s">
         <v>172</v>
       </c>
       <c r="B31" s="8"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32" s="9" t="s">
         <v>173</v>
       </c>
       <c r="B32" s="8"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33" s="9" t="s">
         <v>174</v>
       </c>
       <c r="B33" s="8"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34" s="9" t="s">
         <v>175</v>
       </c>
       <c r="B34" s="8"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" s="9" t="s">
         <v>176</v>
       </c>
       <c r="B35" s="8"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" s="9" t="s">
         <v>177</v>
       </c>
       <c r="B36" s="8"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37" s="9" t="s">
         <v>178</v>
       </c>
       <c r="B37" s="8"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38" s="9" t="s">
         <v>179</v>
       </c>
       <c r="B38" s="8"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39" s="9" t="s">
         <v>180</v>
       </c>
       <c r="B39" s="8"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40" s="9" t="s">
         <v>181</v>
       </c>
       <c r="B40" s="8"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2">
       <c r="A41" s="9" t="s">
         <v>182</v>
       </c>
       <c r="B41" s="8"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42" s="9" t="s">
         <v>183</v>
       </c>
       <c r="B42" s="8"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43" s="9" t="s">
         <v>184</v>
       </c>
       <c r="B43" s="8"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2">
       <c r="A44" s="9" t="s">
         <v>185</v>
       </c>
       <c r="B44" s="8"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2">
       <c r="A45" s="9" t="s">
         <v>186</v>
       </c>
       <c r="B45" s="8"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2">
       <c r="A46" s="9" t="s">
         <v>187</v>
       </c>
       <c r="B46" s="8"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2">
       <c r="A47" s="9" t="s">
         <v>188</v>
       </c>
       <c r="B47" s="8"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2">
       <c r="A48" s="9" t="s">
         <v>189</v>
       </c>
       <c r="B48" s="8"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2">
       <c r="A49" s="9"/>
       <c r="B49" s="8"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2">
       <c r="B50" s="8"/>
     </row>
-    <row r="52" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="19">
       <c r="A52" s="12" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2">
       <c r="A53" s="9" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2">
       <c r="A54" s="9" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2">
       <c r="A55" s="9" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2">
       <c r="A56" s="9" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2">
       <c r="A57" s="9" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2">
       <c r="A58" s="9" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2">
       <c r="A59" s="9" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2">
       <c r="A60" s="9" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2">
       <c r="A61" s="9" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2">
       <c r="A62" s="9" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2">
       <c r="A63" s="9" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2">
       <c r="A64" s="9" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1">
       <c r="A65" s="9" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1">
       <c r="A66" s="9" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1">
       <c r="A67" s="9" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1">
       <c r="A68" s="9" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1">
       <c r="A69" s="9" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1">
       <c r="A70" s="9" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1">
       <c r="A71" s="9" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1">
       <c r="A72" s="9" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1">
       <c r="A73" s="9" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1">
       <c r="A74" s="9" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1">
       <c r="A75" s="9" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1">
       <c r="A76" s="9" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1">
       <c r="A77" s="9" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1">
       <c r="A78" s="9"/>
     </row>
-    <row r="81" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" ht="19">
       <c r="A81" s="12" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1">
       <c r="A82" s="9" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1">
       <c r="A83" s="9" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1">
       <c r="A84" s="9" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1">
       <c r="A85" s="9" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1">
       <c r="A86" s="9" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1">
       <c r="A87" s="9" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1">
       <c r="A88" s="9" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1">
       <c r="A89" s="9" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1">
       <c r="A90" s="9" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1">
       <c r="A91" s="9" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1">
       <c r="A92" s="9" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1">
       <c r="A93" s="9" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1">
       <c r="A94" s="9" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1">
       <c r="A95" s="9" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1">
       <c r="A96" s="9" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1">
       <c r="A97" s="9" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1">
       <c r="A98" s="9" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1">
       <c r="A99" s="9"/>
     </row>
-    <row r="102" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" ht="19">
       <c r="A102" s="12" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1">
       <c r="A103" s="9" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1">
       <c r="A104" s="9" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1">
       <c r="A105" s="9" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1">
       <c r="A106" s="9" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1">
       <c r="A107" s="9" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1">
       <c r="A108" s="9" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:1">
       <c r="A109" s="9" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:1">
       <c r="A110" s="9" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:1">
       <c r="A111" s="9" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:1">
       <c r="A112" s="9" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1">
       <c r="A113" s="9" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1">
       <c r="A114" s="9" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:1">
       <c r="A115" s="9" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1">
       <c r="A116" s="9" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1">
       <c r="A117" s="9" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:1">
       <c r="A118" s="9" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:1">
       <c r="A119" s="9" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:1">
       <c r="A120" s="9" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:1">
       <c r="A121" s="9" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:1">
       <c r="A122" s="9" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:1">
       <c r="A123" s="9" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:1">
       <c r="A124" s="9" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:1">
       <c r="A125" s="9" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:1">
       <c r="A126" s="9" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:1">
       <c r="A127" s="9" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:1">
       <c r="A128" s="9"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:1">
       <c r="A130" s="9"/>
     </row>
-    <row r="131" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" ht="19">
       <c r="A131" s="12" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:1">
       <c r="A132" s="9" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:1">
       <c r="A133" s="9" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:1">
       <c r="A134" s="9" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:1">
       <c r="A135" s="9" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:1">
       <c r="A136" s="9" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:1">
       <c r="A137" s="9" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:1">
       <c r="A138" s="9" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:1">
       <c r="A139" s="9" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:1">
       <c r="A140" s="9" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:1">
       <c r="A141" s="9" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:1">
       <c r="A142" s="9" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:1">
       <c r="A143" s="9" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:1">
       <c r="A144" s="9" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:1">
       <c r="A145" s="9" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:1">
       <c r="A146" s="9" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:1">
       <c r="A147" s="9" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:1">
       <c r="A148" s="9" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:1">
       <c r="A149" s="9"/>
     </row>
-    <row r="152" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" ht="19">
       <c r="A152" s="12" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:1">
       <c r="A153" s="9" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:1">
       <c r="A154" s="9" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:1">
       <c r="A155" s="9" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:1">
       <c r="A156" s="9" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:1">
       <c r="A157" s="9" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:1">
       <c r="A158" s="9" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:1">
       <c r="A159" s="9" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:1">
       <c r="A160" s="9" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:1">
       <c r="A161" s="9" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:1">
       <c r="A162" s="9" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:1">
       <c r="A163" s="9" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:1">
       <c r="A164" s="9" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:1">
       <c r="A165" s="9" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:1">
       <c r="A166" s="9" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:1">
       <c r="A167" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:1">
       <c r="A168" s="9" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:1">
       <c r="A169" s="9" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:1">
       <c r="A170" s="9" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:1">
       <c r="A171" s="9" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:1">
       <c r="A172" s="9" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:1">
       <c r="A173" s="9" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:1">
       <c r="A174" s="9" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:1">
       <c r="A175" s="9" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:1">
       <c r="A176" s="9" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:1">
       <c r="A177" s="9" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:1">
       <c r="A178" s="9"/>
     </row>
-    <row r="181" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" ht="19">
       <c r="A181" s="12" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:1">
       <c r="A182" s="9" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:1">
       <c r="A183" s="9" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:1">
       <c r="A184" s="9" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:1">
       <c r="A185" s="9" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:1">
       <c r="A186" s="9" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:1">
       <c r="A187" s="9" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:1">
       <c r="A188" s="9" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:1">
       <c r="A189" s="9" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:1">
       <c r="A190" s="9" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:1">
       <c r="A191" s="9" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:1">
       <c r="A192" s="9" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:1">
       <c r="A193" s="9" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:1">
       <c r="A194" s="9" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:1">
       <c r="A195" s="9" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:1">
       <c r="A196" s="9" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:1">
       <c r="A197" s="9" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:1">
       <c r="A198" s="9" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:1">
       <c r="A199" s="9"/>
     </row>
-    <row r="202" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" ht="19">
       <c r="A202" s="12" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:1">
       <c r="A203" s="9" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:1">
       <c r="A204" s="9" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:1">
       <c r="A205" s="9" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:1">
       <c r="A206" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:1">
       <c r="A207" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:1">
       <c r="A208" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:1">
       <c r="A209" s="9" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:1">
       <c r="A210" s="9" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:1">
       <c r="A211" s="9" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:1">
       <c r="A212" s="9" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:1">
       <c r="A213" s="9" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:1">
       <c r="A214" s="9" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:1">
       <c r="A215" s="9" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:1">
       <c r="A216" s="9" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:1">
       <c r="A217" s="9" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:1">
       <c r="A218" s="9" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:1">
       <c r="A219" s="9" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:1">
       <c r="A220" s="9" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:1">
       <c r="A221" s="9" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:1">
       <c r="A222" s="9" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:1">
       <c r="A223" s="9" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:1">
       <c r="A224" s="9" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:1">
       <c r="A225" s="9" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:1">
       <c r="A226" s="9" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:1">
       <c r="A227" s="9" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:1">
       <c r="A228" s="9"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:1">
       <c r="A229" s="9"/>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:1">
       <c r="A232" s="2" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="233" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" ht="19">
       <c r="A233" s="12" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:1">
       <c r="A234" s="9" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:1">
       <c r="A235" s="9" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:1">
       <c r="A236" s="9" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:1">
       <c r="A237" s="9" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:1">
       <c r="A238" s="9" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:1">
       <c r="A239" s="9" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:1">
       <c r="A240" s="9"/>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:1">
       <c r="A242" s="9" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:1">
       <c r="A243" s="9" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:1">
       <c r="A244" s="9" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:1">
       <c r="A245" s="9" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:1">
       <c r="A246" s="9" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:1">
       <c r="A247" s="9" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:1">
       <c r="A248" s="9"/>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:1">
       <c r="A250" s="9" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="251" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:1" ht="19">
       <c r="A251" s="12"/>
     </row>
-    <row r="252" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:1" ht="18">
       <c r="A252" s="13"/>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:1">
       <c r="A253" s="8"/>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:1">
       <c r="A254" s="8"/>
     </row>
-    <row r="255" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:1" ht="18">
       <c r="A255" s="13"/>
     </row>
-    <row r="256" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:1" ht="18">
       <c r="A256" s="13"/>
     </row>
-    <row r="257" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:1" ht="18">
       <c r="A257" s="13"/>
     </row>
-    <row r="258" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:1" ht="18">
       <c r="A258" s="13"/>
     </row>
-    <row r="260" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:1" ht="18">
       <c r="A260" s="13"/>
     </row>
-    <row r="261" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:1" ht="18">
       <c r="A261" s="13"/>
     </row>
-    <row r="262" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:1" ht="18">
       <c r="A262" s="13"/>
     </row>
-    <row r="263" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:1" ht="18">
       <c r="A263" s="13"/>
     </row>
-    <row r="264" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:1" ht="18">
       <c r="A264" s="13"/>
     </row>
-    <row r="265" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:1" ht="18">
       <c r="A265" s="13"/>
     </row>
-    <row r="268" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:1" ht="18">
       <c r="A268" s="13"/>
     </row>
-    <row r="269" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:1" ht="18">
       <c r="A269" s="13"/>
     </row>
-    <row r="270" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:1" ht="18">
       <c r="A270" s="13"/>
     </row>
-    <row r="271" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:1" ht="18">
       <c r="A271" s="13"/>
     </row>
-    <row r="272" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:1" ht="18">
       <c r="A272" s="13"/>
     </row>
-    <row r="273" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:1" ht="18">
       <c r="A273" s="13"/>
     </row>
-    <row r="274" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:1" ht="18">
       <c r="A274" s="13"/>
     </row>
-    <row r="276" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:1" ht="18">
       <c r="A276" s="13"/>
     </row>
-    <row r="277" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:1" ht="18">
       <c r="A277" s="13"/>
     </row>
-    <row r="278" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:1" ht="18">
       <c r="A278" s="13"/>
     </row>
-    <row r="279" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:1" ht="18">
       <c r="A279" s="13"/>
     </row>
-    <row r="280" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:1" ht="18">
       <c r="A280" s="13"/>
     </row>
-    <row r="281" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:1" ht="18">
       <c r="A281" s="13"/>
     </row>
-    <row r="284" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:1" ht="18">
       <c r="A284" s="13"/>
     </row>
-    <row r="285" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:1" ht="18">
       <c r="A285" s="13"/>
     </row>
-    <row r="286" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:1" ht="18">
       <c r="A286" s="13"/>
     </row>
-    <row r="287" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:1" ht="18">
       <c r="A287" s="13"/>
     </row>
-    <row r="288" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:1" ht="18">
       <c r="A288" s="13"/>
     </row>
-    <row r="289" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:1" ht="18">
       <c r="A289" s="13"/>
     </row>
-    <row r="290" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:1" ht="18">
       <c r="A290" s="13"/>
     </row>
-    <row r="292" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:1" ht="18">
       <c r="A292" s="13"/>
     </row>
-    <row r="293" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:1" ht="18">
       <c r="A293" s="13"/>
     </row>
-    <row r="294" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:1" ht="18">
       <c r="A294" s="13"/>
     </row>
-    <row r="295" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:1" ht="18">
       <c r="A295" s="13"/>
     </row>
-    <row r="296" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:1" ht="18">
       <c r="A296" s="13"/>
     </row>
-    <row r="297" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:1" ht="18">
       <c r="A297" s="13"/>
     </row>
-    <row r="300" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:1" ht="18">
       <c r="A300" s="13"/>
     </row>
-    <row r="301" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:1" ht="18">
       <c r="A301" s="13"/>
     </row>
-    <row r="302" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:1" ht="18">
       <c r="A302" s="13"/>
     </row>
-    <row r="303" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:1" ht="18">
       <c r="A303" s="13"/>
     </row>
-    <row r="304" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:1" ht="18">
       <c r="A304" s="13"/>
     </row>
-    <row r="305" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:1" ht="18">
       <c r="A305" s="13"/>
     </row>
-    <row r="306" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:1" ht="18">
       <c r="A306" s="13"/>
     </row>
-    <row r="308" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:1" ht="18">
       <c r="A308" s="13"/>
     </row>
-    <row r="309" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:1" ht="18">
       <c r="A309" s="13"/>
     </row>
-    <row r="310" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:1" ht="18">
       <c r="A310" s="13"/>
     </row>
-    <row r="311" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:1" ht="18">
       <c r="A311" s="13"/>
     </row>
-    <row r="312" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:1" ht="18">
       <c r="A312" s="13"/>
     </row>
-    <row r="313" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:1" ht="18">
       <c r="A313" s="13"/>
     </row>
   </sheetData>
@@ -4331,336 +4998,5699 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="17">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="17">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="17">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="19">
       <c r="A6" s="14" t="s">
         <v>361</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="18">
       <c r="A7" s="15" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="18">
       <c r="A8" s="15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="18">
       <c r="A9" s="15" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="18">
       <c r="A10" s="15" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="18">
       <c r="A11" s="15" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="18">
       <c r="A12" s="15" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="18">
       <c r="A13" s="15" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="18">
       <c r="A15" s="15" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="18">
       <c r="A16" s="15" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="18">
       <c r="A17" s="15" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="18">
       <c r="A18" s="15" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="18">
       <c r="A19" s="15" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="18">
       <c r="A20" s="15" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" s="2"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="18">
       <c r="A23" s="15" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="18">
       <c r="A24" s="15" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="18">
       <c r="A25" s="15" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="18">
       <c r="A26" s="15" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="18">
       <c r="A27" s="15" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="18">
       <c r="A28" s="15" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="18">
       <c r="A29" s="15" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="18">
       <c r="A31" s="15" t="s">
         <v>381</v>
       </c>
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="18">
       <c r="A32" s="15" t="s">
         <v>382</v>
       </c>
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="18">
       <c r="A33" s="15" t="s">
         <v>383</v>
       </c>
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="18">
       <c r="A34" s="15" t="s">
         <v>384</v>
       </c>
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="18">
       <c r="A35" s="15" t="s">
         <v>385</v>
       </c>
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="18">
       <c r="A36" s="15" t="s">
         <v>386</v>
       </c>
       <c r="B36" s="2"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37" s="2"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38" s="2"/>
     </row>
-    <row r="39" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="18">
       <c r="A39" s="15" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="18">
       <c r="A40" s="15" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="18">
       <c r="A41" s="15" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="18">
       <c r="A42" s="15" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="18">
       <c r="A43" s="15" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="18">
       <c r="A44" s="15" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="18">
       <c r="A45" s="15" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2">
       <c r="A46" s="2"/>
     </row>
-    <row r="47" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="18">
       <c r="A47" s="15" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="18">
       <c r="A48" s="15" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" ht="18">
       <c r="A49" s="15" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" ht="18">
       <c r="A50" s="15" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" ht="18">
       <c r="A51" s="15" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" ht="18">
       <c r="A52" s="15" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1">
       <c r="A53" s="2"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1">
       <c r="A54" s="2"/>
     </row>
-    <row r="55" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" ht="18">
       <c r="A55" s="15" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" ht="18">
       <c r="A56" s="15" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" ht="18">
       <c r="A57" s="15" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" ht="18">
       <c r="A58" s="15" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" ht="18">
       <c r="A59" s="15" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" ht="18">
       <c r="A60" s="15" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" ht="18">
       <c r="A61" s="15" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1">
       <c r="A62" s="2"/>
     </row>
-    <row r="63" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" ht="18">
       <c r="A63" s="15" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" ht="18">
       <c r="A64" s="15" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" ht="18">
       <c r="A65" s="15" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" ht="18">
       <c r="A66" s="15" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" ht="18">
       <c r="A67" s="15" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" ht="18">
       <c r="A68" s="15" t="s">
         <v>410</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2EE2F76-B140-AD40-B4E1-6B327E22EFB1}">
+  <dimension ref="A1:E317"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B2" t="s">
+        <v>475</v>
+      </c>
+      <c r="C2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D2" t="s">
+        <v>477</v>
+      </c>
+      <c r="E2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>479</v>
+      </c>
+      <c r="B3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C3" t="s">
+        <v>481</v>
+      </c>
+      <c r="D3" t="s">
+        <v>482</v>
+      </c>
+      <c r="E3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>479</v>
+      </c>
+      <c r="B4" t="s">
+        <v>484</v>
+      </c>
+      <c r="C4" t="s">
+        <v>485</v>
+      </c>
+      <c r="D4" t="s">
+        <v>482</v>
+      </c>
+      <c r="E4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>479</v>
+      </c>
+      <c r="B5" t="s">
+        <v>486</v>
+      </c>
+      <c r="C5" t="s">
+        <v>487</v>
+      </c>
+      <c r="D5" t="s">
+        <v>482</v>
+      </c>
+      <c r="E5" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>479</v>
+      </c>
+      <c r="B6" t="s">
+        <v>488</v>
+      </c>
+      <c r="C6" t="s">
+        <v>489</v>
+      </c>
+      <c r="D6" t="s">
+        <v>482</v>
+      </c>
+      <c r="E6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>479</v>
+      </c>
+      <c r="B7" t="s">
+        <v>490</v>
+      </c>
+      <c r="C7" t="s">
+        <v>491</v>
+      </c>
+      <c r="D7" t="s">
+        <v>482</v>
+      </c>
+      <c r="E7" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>479</v>
+      </c>
+      <c r="B8" t="s">
+        <v>492</v>
+      </c>
+      <c r="C8" t="s">
+        <v>493</v>
+      </c>
+      <c r="D8" t="s">
+        <v>482</v>
+      </c>
+      <c r="E8" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>479</v>
+      </c>
+      <c r="B9" t="s">
+        <v>494</v>
+      </c>
+      <c r="C9" t="s">
+        <v>495</v>
+      </c>
+      <c r="D9" t="s">
+        <v>482</v>
+      </c>
+      <c r="E9" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>479</v>
+      </c>
+      <c r="B10" t="s">
+        <v>496</v>
+      </c>
+      <c r="C10" t="s">
+        <v>497</v>
+      </c>
+      <c r="D10" t="s">
+        <v>482</v>
+      </c>
+      <c r="E10" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>479</v>
+      </c>
+      <c r="B11" t="s">
+        <v>498</v>
+      </c>
+      <c r="C11" t="s">
+        <v>499</v>
+      </c>
+      <c r="D11" t="s">
+        <v>482</v>
+      </c>
+      <c r="E11" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>479</v>
+      </c>
+      <c r="B12" t="s">
+        <v>500</v>
+      </c>
+      <c r="C12" t="s">
+        <v>501</v>
+      </c>
+      <c r="D12" t="s">
+        <v>482</v>
+      </c>
+      <c r="E12" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>479</v>
+      </c>
+      <c r="B13" t="s">
+        <v>502</v>
+      </c>
+      <c r="C13" t="s">
+        <v>503</v>
+      </c>
+      <c r="D13" t="s">
+        <v>482</v>
+      </c>
+      <c r="E13" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>479</v>
+      </c>
+      <c r="B14" t="s">
+        <v>504</v>
+      </c>
+      <c r="C14" t="s">
+        <v>505</v>
+      </c>
+      <c r="D14" t="s">
+        <v>482</v>
+      </c>
+      <c r="E14" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>506</v>
+      </c>
+      <c r="B15" t="s">
+        <v>480</v>
+      </c>
+      <c r="C15" t="s">
+        <v>507</v>
+      </c>
+      <c r="D15" t="s">
+        <v>482</v>
+      </c>
+      <c r="E15" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>506</v>
+      </c>
+      <c r="B16" t="s">
+        <v>484</v>
+      </c>
+      <c r="C16" t="s">
+        <v>508</v>
+      </c>
+      <c r="D16" t="s">
+        <v>482</v>
+      </c>
+      <c r="E16" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>506</v>
+      </c>
+      <c r="B17" t="s">
+        <v>486</v>
+      </c>
+      <c r="C17" t="s">
+        <v>509</v>
+      </c>
+      <c r="D17" t="s">
+        <v>482</v>
+      </c>
+      <c r="E17" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>506</v>
+      </c>
+      <c r="B18" t="s">
+        <v>488</v>
+      </c>
+      <c r="C18" t="s">
+        <v>510</v>
+      </c>
+      <c r="D18" t="s">
+        <v>482</v>
+      </c>
+      <c r="E18" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>506</v>
+      </c>
+      <c r="B19" t="s">
+        <v>490</v>
+      </c>
+      <c r="C19" t="s">
+        <v>511</v>
+      </c>
+      <c r="D19" t="s">
+        <v>482</v>
+      </c>
+      <c r="E19" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>506</v>
+      </c>
+      <c r="B20" t="s">
+        <v>492</v>
+      </c>
+      <c r="C20" t="s">
+        <v>512</v>
+      </c>
+      <c r="D20" t="s">
+        <v>482</v>
+      </c>
+      <c r="E20" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>506</v>
+      </c>
+      <c r="B21" t="s">
+        <v>494</v>
+      </c>
+      <c r="C21" t="s">
+        <v>513</v>
+      </c>
+      <c r="D21" t="s">
+        <v>482</v>
+      </c>
+      <c r="E21" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>506</v>
+      </c>
+      <c r="B22" t="s">
+        <v>496</v>
+      </c>
+      <c r="C22" t="s">
+        <v>514</v>
+      </c>
+      <c r="D22" t="s">
+        <v>482</v>
+      </c>
+      <c r="E22" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>506</v>
+      </c>
+      <c r="B23" t="s">
+        <v>498</v>
+      </c>
+      <c r="C23" t="s">
+        <v>515</v>
+      </c>
+      <c r="D23" t="s">
+        <v>482</v>
+      </c>
+      <c r="E23" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>506</v>
+      </c>
+      <c r="B24" t="s">
+        <v>500</v>
+      </c>
+      <c r="C24" t="s">
+        <v>516</v>
+      </c>
+      <c r="D24" t="s">
+        <v>482</v>
+      </c>
+      <c r="E24" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>506</v>
+      </c>
+      <c r="B25" t="s">
+        <v>502</v>
+      </c>
+      <c r="C25" t="s">
+        <v>517</v>
+      </c>
+      <c r="D25" t="s">
+        <v>482</v>
+      </c>
+      <c r="E25" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>506</v>
+      </c>
+      <c r="B26" t="s">
+        <v>504</v>
+      </c>
+      <c r="C26" t="s">
+        <v>518</v>
+      </c>
+      <c r="D26" t="s">
+        <v>482</v>
+      </c>
+      <c r="E26" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>519</v>
+      </c>
+      <c r="B27" t="s">
+        <v>480</v>
+      </c>
+      <c r="C27" t="s">
+        <v>520</v>
+      </c>
+      <c r="D27" t="s">
+        <v>482</v>
+      </c>
+      <c r="E27" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>519</v>
+      </c>
+      <c r="B28" t="s">
+        <v>484</v>
+      </c>
+      <c r="C28" t="s">
+        <v>521</v>
+      </c>
+      <c r="D28" t="s">
+        <v>482</v>
+      </c>
+      <c r="E28" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>519</v>
+      </c>
+      <c r="B29" t="s">
+        <v>486</v>
+      </c>
+      <c r="C29" t="s">
+        <v>522</v>
+      </c>
+      <c r="D29" t="s">
+        <v>482</v>
+      </c>
+      <c r="E29" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>519</v>
+      </c>
+      <c r="B30" t="s">
+        <v>488</v>
+      </c>
+      <c r="C30" t="s">
+        <v>523</v>
+      </c>
+      <c r="D30" t="s">
+        <v>482</v>
+      </c>
+      <c r="E30" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>519</v>
+      </c>
+      <c r="B31" t="s">
+        <v>490</v>
+      </c>
+      <c r="C31" t="s">
+        <v>524</v>
+      </c>
+      <c r="D31" t="s">
+        <v>482</v>
+      </c>
+      <c r="E31" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>519</v>
+      </c>
+      <c r="B32" t="s">
+        <v>492</v>
+      </c>
+      <c r="C32" t="s">
+        <v>525</v>
+      </c>
+      <c r="D32" t="s">
+        <v>482</v>
+      </c>
+      <c r="E32" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>519</v>
+      </c>
+      <c r="B33" t="s">
+        <v>494</v>
+      </c>
+      <c r="C33" t="s">
+        <v>526</v>
+      </c>
+      <c r="D33" t="s">
+        <v>482</v>
+      </c>
+      <c r="E33" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>519</v>
+      </c>
+      <c r="B34" t="s">
+        <v>496</v>
+      </c>
+      <c r="C34" t="s">
+        <v>527</v>
+      </c>
+      <c r="D34" t="s">
+        <v>482</v>
+      </c>
+      <c r="E34" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>519</v>
+      </c>
+      <c r="B35" t="s">
+        <v>498</v>
+      </c>
+      <c r="C35" t="s">
+        <v>528</v>
+      </c>
+      <c r="D35" t="s">
+        <v>482</v>
+      </c>
+      <c r="E35" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>519</v>
+      </c>
+      <c r="B36" t="s">
+        <v>500</v>
+      </c>
+      <c r="C36" t="s">
+        <v>529</v>
+      </c>
+      <c r="D36" t="s">
+        <v>482</v>
+      </c>
+      <c r="E36" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>519</v>
+      </c>
+      <c r="B37" t="s">
+        <v>502</v>
+      </c>
+      <c r="C37" t="s">
+        <v>530</v>
+      </c>
+      <c r="D37" t="s">
+        <v>482</v>
+      </c>
+      <c r="E37" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>519</v>
+      </c>
+      <c r="B38" t="s">
+        <v>504</v>
+      </c>
+      <c r="C38" t="s">
+        <v>531</v>
+      </c>
+      <c r="D38" t="s">
+        <v>482</v>
+      </c>
+      <c r="E38" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>532</v>
+      </c>
+      <c r="B39" t="s">
+        <v>480</v>
+      </c>
+      <c r="C39" t="s">
+        <v>533</v>
+      </c>
+      <c r="D39" t="s">
+        <v>482</v>
+      </c>
+      <c r="E39" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>532</v>
+      </c>
+      <c r="B40" t="s">
+        <v>484</v>
+      </c>
+      <c r="C40" t="s">
+        <v>534</v>
+      </c>
+      <c r="D40" t="s">
+        <v>482</v>
+      </c>
+      <c r="E40" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>532</v>
+      </c>
+      <c r="B41" t="s">
+        <v>486</v>
+      </c>
+      <c r="C41" t="s">
+        <v>535</v>
+      </c>
+      <c r="D41" t="s">
+        <v>482</v>
+      </c>
+      <c r="E41" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>532</v>
+      </c>
+      <c r="B42" t="s">
+        <v>488</v>
+      </c>
+      <c r="C42" t="s">
+        <v>536</v>
+      </c>
+      <c r="D42" t="s">
+        <v>482</v>
+      </c>
+      <c r="E42" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>532</v>
+      </c>
+      <c r="B43" t="s">
+        <v>490</v>
+      </c>
+      <c r="C43" t="s">
+        <v>537</v>
+      </c>
+      <c r="D43" t="s">
+        <v>482</v>
+      </c>
+      <c r="E43" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>532</v>
+      </c>
+      <c r="B44" t="s">
+        <v>492</v>
+      </c>
+      <c r="C44" t="s">
+        <v>538</v>
+      </c>
+      <c r="D44" t="s">
+        <v>482</v>
+      </c>
+      <c r="E44" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>532</v>
+      </c>
+      <c r="B45" t="s">
+        <v>494</v>
+      </c>
+      <c r="C45" t="s">
+        <v>539</v>
+      </c>
+      <c r="D45" t="s">
+        <v>482</v>
+      </c>
+      <c r="E45" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>532</v>
+      </c>
+      <c r="B46" t="s">
+        <v>496</v>
+      </c>
+      <c r="C46" t="s">
+        <v>540</v>
+      </c>
+      <c r="D46" t="s">
+        <v>482</v>
+      </c>
+      <c r="E46" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>532</v>
+      </c>
+      <c r="B47" t="s">
+        <v>498</v>
+      </c>
+      <c r="C47" t="s">
+        <v>541</v>
+      </c>
+      <c r="D47" t="s">
+        <v>482</v>
+      </c>
+      <c r="E47" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>532</v>
+      </c>
+      <c r="B48" t="s">
+        <v>500</v>
+      </c>
+      <c r="C48" t="s">
+        <v>542</v>
+      </c>
+      <c r="D48" t="s">
+        <v>482</v>
+      </c>
+      <c r="E48" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>532</v>
+      </c>
+      <c r="B49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C49" t="s">
+        <v>543</v>
+      </c>
+      <c r="D49" t="s">
+        <v>482</v>
+      </c>
+      <c r="E49" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>532</v>
+      </c>
+      <c r="B50" t="s">
+        <v>504</v>
+      </c>
+      <c r="C50" t="s">
+        <v>544</v>
+      </c>
+      <c r="D50" t="s">
+        <v>482</v>
+      </c>
+      <c r="E50" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>545</v>
+      </c>
+      <c r="B51" t="s">
+        <v>480</v>
+      </c>
+      <c r="C51" t="s">
+        <v>546</v>
+      </c>
+      <c r="D51" t="s">
+        <v>482</v>
+      </c>
+      <c r="E51" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>545</v>
+      </c>
+      <c r="B52" t="s">
+        <v>484</v>
+      </c>
+      <c r="C52" t="s">
+        <v>547</v>
+      </c>
+      <c r="D52" t="s">
+        <v>482</v>
+      </c>
+      <c r="E52" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>545</v>
+      </c>
+      <c r="B53" t="s">
+        <v>486</v>
+      </c>
+      <c r="C53" t="s">
+        <v>548</v>
+      </c>
+      <c r="D53" t="s">
+        <v>482</v>
+      </c>
+      <c r="E53" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>545</v>
+      </c>
+      <c r="B54" t="s">
+        <v>488</v>
+      </c>
+      <c r="C54" t="s">
+        <v>549</v>
+      </c>
+      <c r="D54" t="s">
+        <v>482</v>
+      </c>
+      <c r="E54" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>545</v>
+      </c>
+      <c r="B55" t="s">
+        <v>490</v>
+      </c>
+      <c r="C55" t="s">
+        <v>550</v>
+      </c>
+      <c r="D55" t="s">
+        <v>482</v>
+      </c>
+      <c r="E55" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>545</v>
+      </c>
+      <c r="B56" t="s">
+        <v>492</v>
+      </c>
+      <c r="C56" t="s">
+        <v>551</v>
+      </c>
+      <c r="D56" t="s">
+        <v>482</v>
+      </c>
+      <c r="E56" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>545</v>
+      </c>
+      <c r="B57" t="s">
+        <v>494</v>
+      </c>
+      <c r="C57" t="s">
+        <v>552</v>
+      </c>
+      <c r="D57" t="s">
+        <v>482</v>
+      </c>
+      <c r="E57" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>545</v>
+      </c>
+      <c r="B58" t="s">
+        <v>496</v>
+      </c>
+      <c r="C58" t="s">
+        <v>553</v>
+      </c>
+      <c r="D58" t="s">
+        <v>482</v>
+      </c>
+      <c r="E58" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>545</v>
+      </c>
+      <c r="B59" t="s">
+        <v>498</v>
+      </c>
+      <c r="C59" t="s">
+        <v>554</v>
+      </c>
+      <c r="D59" t="s">
+        <v>482</v>
+      </c>
+      <c r="E59" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>545</v>
+      </c>
+      <c r="B60" t="s">
+        <v>500</v>
+      </c>
+      <c r="C60" t="s">
+        <v>555</v>
+      </c>
+      <c r="D60" t="s">
+        <v>482</v>
+      </c>
+      <c r="E60" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>545</v>
+      </c>
+      <c r="B61" t="s">
+        <v>502</v>
+      </c>
+      <c r="C61" t="s">
+        <v>556</v>
+      </c>
+      <c r="D61" t="s">
+        <v>482</v>
+      </c>
+      <c r="E61" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>545</v>
+      </c>
+      <c r="B62" t="s">
+        <v>504</v>
+      </c>
+      <c r="C62" t="s">
+        <v>557</v>
+      </c>
+      <c r="D62" t="s">
+        <v>482</v>
+      </c>
+      <c r="E62" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>558</v>
+      </c>
+      <c r="B63" t="s">
+        <v>480</v>
+      </c>
+      <c r="C63" t="s">
+        <v>559</v>
+      </c>
+      <c r="D63" t="s">
+        <v>482</v>
+      </c>
+      <c r="E63" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>558</v>
+      </c>
+      <c r="B64" t="s">
+        <v>484</v>
+      </c>
+      <c r="C64" t="s">
+        <v>560</v>
+      </c>
+      <c r="D64" t="s">
+        <v>482</v>
+      </c>
+      <c r="E64" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>558</v>
+      </c>
+      <c r="B65" t="s">
+        <v>486</v>
+      </c>
+      <c r="C65" t="s">
+        <v>561</v>
+      </c>
+      <c r="D65" t="s">
+        <v>482</v>
+      </c>
+      <c r="E65" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>558</v>
+      </c>
+      <c r="B66" t="s">
+        <v>488</v>
+      </c>
+      <c r="C66" t="s">
+        <v>562</v>
+      </c>
+      <c r="D66" t="s">
+        <v>482</v>
+      </c>
+      <c r="E66" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>558</v>
+      </c>
+      <c r="B67" t="s">
+        <v>490</v>
+      </c>
+      <c r="C67" t="s">
+        <v>563</v>
+      </c>
+      <c r="D67" t="s">
+        <v>482</v>
+      </c>
+      <c r="E67" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>558</v>
+      </c>
+      <c r="B68" t="s">
+        <v>492</v>
+      </c>
+      <c r="C68" t="s">
+        <v>564</v>
+      </c>
+      <c r="D68" t="s">
+        <v>482</v>
+      </c>
+      <c r="E68" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>558</v>
+      </c>
+      <c r="B69" t="s">
+        <v>494</v>
+      </c>
+      <c r="C69" t="s">
+        <v>565</v>
+      </c>
+      <c r="D69" t="s">
+        <v>482</v>
+      </c>
+      <c r="E69" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>558</v>
+      </c>
+      <c r="B70" t="s">
+        <v>496</v>
+      </c>
+      <c r="C70" t="s">
+        <v>566</v>
+      </c>
+      <c r="D70" t="s">
+        <v>482</v>
+      </c>
+      <c r="E70" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>558</v>
+      </c>
+      <c r="B71" t="s">
+        <v>498</v>
+      </c>
+      <c r="C71" t="s">
+        <v>567</v>
+      </c>
+      <c r="D71" t="s">
+        <v>482</v>
+      </c>
+      <c r="E71" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>558</v>
+      </c>
+      <c r="B72" t="s">
+        <v>500</v>
+      </c>
+      <c r="C72" t="s">
+        <v>568</v>
+      </c>
+      <c r="D72" t="s">
+        <v>482</v>
+      </c>
+      <c r="E72" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>558</v>
+      </c>
+      <c r="B73" t="s">
+        <v>502</v>
+      </c>
+      <c r="C73" t="s">
+        <v>569</v>
+      </c>
+      <c r="D73" t="s">
+        <v>482</v>
+      </c>
+      <c r="E73" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>558</v>
+      </c>
+      <c r="B74" t="s">
+        <v>504</v>
+      </c>
+      <c r="C74" t="s">
+        <v>570</v>
+      </c>
+      <c r="D74" t="s">
+        <v>482</v>
+      </c>
+      <c r="E74" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>571</v>
+      </c>
+      <c r="B75" t="s">
+        <v>494</v>
+      </c>
+      <c r="C75" t="s">
+        <v>572</v>
+      </c>
+      <c r="D75" t="s">
+        <v>482</v>
+      </c>
+      <c r="E75" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>571</v>
+      </c>
+      <c r="B76" t="s">
+        <v>496</v>
+      </c>
+      <c r="C76" t="s">
+        <v>573</v>
+      </c>
+      <c r="D76" t="s">
+        <v>482</v>
+      </c>
+      <c r="E76" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>571</v>
+      </c>
+      <c r="B77" t="s">
+        <v>498</v>
+      </c>
+      <c r="C77" t="s">
+        <v>574</v>
+      </c>
+      <c r="D77" t="s">
+        <v>482</v>
+      </c>
+      <c r="E77" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>571</v>
+      </c>
+      <c r="B78" t="s">
+        <v>500</v>
+      </c>
+      <c r="C78" t="s">
+        <v>575</v>
+      </c>
+      <c r="D78" t="s">
+        <v>482</v>
+      </c>
+      <c r="E78" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>571</v>
+      </c>
+      <c r="B79" t="s">
+        <v>502</v>
+      </c>
+      <c r="C79" t="s">
+        <v>576</v>
+      </c>
+      <c r="D79" t="s">
+        <v>482</v>
+      </c>
+      <c r="E79" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>571</v>
+      </c>
+      <c r="B80" t="s">
+        <v>504</v>
+      </c>
+      <c r="C80" t="s">
+        <v>577</v>
+      </c>
+      <c r="D80" t="s">
+        <v>482</v>
+      </c>
+      <c r="E80" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>578</v>
+      </c>
+      <c r="B81" t="s">
+        <v>579</v>
+      </c>
+      <c r="C81" t="s">
+        <v>580</v>
+      </c>
+      <c r="D81" t="s">
+        <v>581</v>
+      </c>
+      <c r="E81" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>578</v>
+      </c>
+      <c r="B82" t="s">
+        <v>583</v>
+      </c>
+      <c r="C82" t="s">
+        <v>584</v>
+      </c>
+      <c r="D82" t="s">
+        <v>581</v>
+      </c>
+      <c r="E82" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>578</v>
+      </c>
+      <c r="B83" t="s">
+        <v>585</v>
+      </c>
+      <c r="C83" t="s">
+        <v>487</v>
+      </c>
+      <c r="D83" t="s">
+        <v>581</v>
+      </c>
+      <c r="E83" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>578</v>
+      </c>
+      <c r="B84" t="s">
+        <v>586</v>
+      </c>
+      <c r="C84" t="s">
+        <v>489</v>
+      </c>
+      <c r="D84" t="s">
+        <v>581</v>
+      </c>
+      <c r="E84" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>578</v>
+      </c>
+      <c r="B85" t="s">
+        <v>587</v>
+      </c>
+      <c r="C85" t="s">
+        <v>491</v>
+      </c>
+      <c r="D85" t="s">
+        <v>581</v>
+      </c>
+      <c r="E85" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>578</v>
+      </c>
+      <c r="B86" t="s">
+        <v>588</v>
+      </c>
+      <c r="C86" t="s">
+        <v>493</v>
+      </c>
+      <c r="D86" t="s">
+        <v>581</v>
+      </c>
+      <c r="E86" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>578</v>
+      </c>
+      <c r="B87" t="s">
+        <v>589</v>
+      </c>
+      <c r="C87" t="s">
+        <v>495</v>
+      </c>
+      <c r="D87" t="s">
+        <v>581</v>
+      </c>
+      <c r="E87" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>578</v>
+      </c>
+      <c r="B88" t="s">
+        <v>590</v>
+      </c>
+      <c r="C88" t="s">
+        <v>497</v>
+      </c>
+      <c r="D88" t="s">
+        <v>581</v>
+      </c>
+      <c r="E88" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>578</v>
+      </c>
+      <c r="B89" t="s">
+        <v>591</v>
+      </c>
+      <c r="C89" t="s">
+        <v>499</v>
+      </c>
+      <c r="D89" t="s">
+        <v>581</v>
+      </c>
+      <c r="E89" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>578</v>
+      </c>
+      <c r="B90" t="s">
+        <v>592</v>
+      </c>
+      <c r="C90" t="s">
+        <v>501</v>
+      </c>
+      <c r="D90" t="s">
+        <v>581</v>
+      </c>
+      <c r="E90" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>578</v>
+      </c>
+      <c r="B91" t="s">
+        <v>593</v>
+      </c>
+      <c r="C91" t="s">
+        <v>503</v>
+      </c>
+      <c r="D91" t="s">
+        <v>581</v>
+      </c>
+      <c r="E91" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>578</v>
+      </c>
+      <c r="B92" t="s">
+        <v>594</v>
+      </c>
+      <c r="C92" t="s">
+        <v>505</v>
+      </c>
+      <c r="D92" t="s">
+        <v>581</v>
+      </c>
+      <c r="E92" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>595</v>
+      </c>
+      <c r="B93" t="s">
+        <v>579</v>
+      </c>
+      <c r="C93" t="s">
+        <v>507</v>
+      </c>
+      <c r="D93" t="s">
+        <v>581</v>
+      </c>
+      <c r="E93" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>595</v>
+      </c>
+      <c r="B94" t="s">
+        <v>583</v>
+      </c>
+      <c r="C94" t="s">
+        <v>508</v>
+      </c>
+      <c r="D94" t="s">
+        <v>581</v>
+      </c>
+      <c r="E94" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>595</v>
+      </c>
+      <c r="B95" t="s">
+        <v>585</v>
+      </c>
+      <c r="C95" t="s">
+        <v>509</v>
+      </c>
+      <c r="D95" t="s">
+        <v>581</v>
+      </c>
+      <c r="E95" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>595</v>
+      </c>
+      <c r="B96" t="s">
+        <v>586</v>
+      </c>
+      <c r="C96" t="s">
+        <v>510</v>
+      </c>
+      <c r="D96" t="s">
+        <v>581</v>
+      </c>
+      <c r="E96" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>595</v>
+      </c>
+      <c r="B97" t="s">
+        <v>587</v>
+      </c>
+      <c r="C97" t="s">
+        <v>511</v>
+      </c>
+      <c r="D97" t="s">
+        <v>581</v>
+      </c>
+      <c r="E97" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>595</v>
+      </c>
+      <c r="B98" t="s">
+        <v>588</v>
+      </c>
+      <c r="C98" t="s">
+        <v>512</v>
+      </c>
+      <c r="D98" t="s">
+        <v>581</v>
+      </c>
+      <c r="E98" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>595</v>
+      </c>
+      <c r="B99" t="s">
+        <v>589</v>
+      </c>
+      <c r="C99" t="s">
+        <v>513</v>
+      </c>
+      <c r="D99" t="s">
+        <v>581</v>
+      </c>
+      <c r="E99" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>595</v>
+      </c>
+      <c r="B100" t="s">
+        <v>590</v>
+      </c>
+      <c r="C100" t="s">
+        <v>514</v>
+      </c>
+      <c r="D100" t="s">
+        <v>581</v>
+      </c>
+      <c r="E100" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>595</v>
+      </c>
+      <c r="B101" t="s">
+        <v>591</v>
+      </c>
+      <c r="C101" t="s">
+        <v>515</v>
+      </c>
+      <c r="D101" t="s">
+        <v>581</v>
+      </c>
+      <c r="E101" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>595</v>
+      </c>
+      <c r="B102" t="s">
+        <v>592</v>
+      </c>
+      <c r="C102" t="s">
+        <v>516</v>
+      </c>
+      <c r="D102" t="s">
+        <v>581</v>
+      </c>
+      <c r="E102" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
+        <v>595</v>
+      </c>
+      <c r="B103" t="s">
+        <v>593</v>
+      </c>
+      <c r="C103" t="s">
+        <v>517</v>
+      </c>
+      <c r="D103" t="s">
+        <v>581</v>
+      </c>
+      <c r="E103" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
+        <v>595</v>
+      </c>
+      <c r="B104" t="s">
+        <v>594</v>
+      </c>
+      <c r="C104" t="s">
+        <v>518</v>
+      </c>
+      <c r="D104" t="s">
+        <v>581</v>
+      </c>
+      <c r="E104" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" t="s">
+        <v>596</v>
+      </c>
+      <c r="B105" t="s">
+        <v>579</v>
+      </c>
+      <c r="C105" t="s">
+        <v>520</v>
+      </c>
+      <c r="D105" t="s">
+        <v>581</v>
+      </c>
+      <c r="E105" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" t="s">
+        <v>596</v>
+      </c>
+      <c r="B106" t="s">
+        <v>583</v>
+      </c>
+      <c r="C106" t="s">
+        <v>521</v>
+      </c>
+      <c r="D106" t="s">
+        <v>581</v>
+      </c>
+      <c r="E106" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" t="s">
+        <v>596</v>
+      </c>
+      <c r="B107" t="s">
+        <v>585</v>
+      </c>
+      <c r="C107" t="s">
+        <v>522</v>
+      </c>
+      <c r="D107" t="s">
+        <v>581</v>
+      </c>
+      <c r="E107" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
+        <v>596</v>
+      </c>
+      <c r="B108" t="s">
+        <v>586</v>
+      </c>
+      <c r="C108" t="s">
+        <v>523</v>
+      </c>
+      <c r="D108" t="s">
+        <v>581</v>
+      </c>
+      <c r="E108" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
+        <v>596</v>
+      </c>
+      <c r="B109" t="s">
+        <v>587</v>
+      </c>
+      <c r="C109" t="s">
+        <v>524</v>
+      </c>
+      <c r="D109" t="s">
+        <v>581</v>
+      </c>
+      <c r="E109" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" t="s">
+        <v>596</v>
+      </c>
+      <c r="B110" t="s">
+        <v>588</v>
+      </c>
+      <c r="C110" t="s">
+        <v>525</v>
+      </c>
+      <c r="D110" t="s">
+        <v>581</v>
+      </c>
+      <c r="E110" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" t="s">
+        <v>596</v>
+      </c>
+      <c r="B111" t="s">
+        <v>589</v>
+      </c>
+      <c r="C111" t="s">
+        <v>526</v>
+      </c>
+      <c r="D111" t="s">
+        <v>581</v>
+      </c>
+      <c r="E111" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" t="s">
+        <v>596</v>
+      </c>
+      <c r="B112" t="s">
+        <v>590</v>
+      </c>
+      <c r="C112" t="s">
+        <v>527</v>
+      </c>
+      <c r="D112" t="s">
+        <v>581</v>
+      </c>
+      <c r="E112" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" t="s">
+        <v>596</v>
+      </c>
+      <c r="B113" t="s">
+        <v>591</v>
+      </c>
+      <c r="C113" t="s">
+        <v>528</v>
+      </c>
+      <c r="D113" t="s">
+        <v>581</v>
+      </c>
+      <c r="E113" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" t="s">
+        <v>596</v>
+      </c>
+      <c r="B114" t="s">
+        <v>592</v>
+      </c>
+      <c r="C114" t="s">
+        <v>529</v>
+      </c>
+      <c r="D114" t="s">
+        <v>581</v>
+      </c>
+      <c r="E114" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" t="s">
+        <v>596</v>
+      </c>
+      <c r="B115" t="s">
+        <v>593</v>
+      </c>
+      <c r="C115" t="s">
+        <v>530</v>
+      </c>
+      <c r="D115" t="s">
+        <v>581</v>
+      </c>
+      <c r="E115" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" t="s">
+        <v>596</v>
+      </c>
+      <c r="B116" t="s">
+        <v>594</v>
+      </c>
+      <c r="C116" t="s">
+        <v>531</v>
+      </c>
+      <c r="D116" t="s">
+        <v>581</v>
+      </c>
+      <c r="E116" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" t="s">
+        <v>597</v>
+      </c>
+      <c r="B117" t="s">
+        <v>579</v>
+      </c>
+      <c r="C117" t="s">
+        <v>533</v>
+      </c>
+      <c r="D117" t="s">
+        <v>581</v>
+      </c>
+      <c r="E117" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" t="s">
+        <v>597</v>
+      </c>
+      <c r="B118" t="s">
+        <v>583</v>
+      </c>
+      <c r="C118" t="s">
+        <v>534</v>
+      </c>
+      <c r="D118" t="s">
+        <v>581</v>
+      </c>
+      <c r="E118" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" t="s">
+        <v>597</v>
+      </c>
+      <c r="B119" t="s">
+        <v>585</v>
+      </c>
+      <c r="C119" t="s">
+        <v>535</v>
+      </c>
+      <c r="D119" t="s">
+        <v>581</v>
+      </c>
+      <c r="E119" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" t="s">
+        <v>597</v>
+      </c>
+      <c r="B120" t="s">
+        <v>586</v>
+      </c>
+      <c r="C120" t="s">
+        <v>536</v>
+      </c>
+      <c r="D120" t="s">
+        <v>581</v>
+      </c>
+      <c r="E120" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" t="s">
+        <v>597</v>
+      </c>
+      <c r="B121" t="s">
+        <v>587</v>
+      </c>
+      <c r="C121" t="s">
+        <v>537</v>
+      </c>
+      <c r="D121" t="s">
+        <v>581</v>
+      </c>
+      <c r="E121" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" t="s">
+        <v>597</v>
+      </c>
+      <c r="B122" t="s">
+        <v>588</v>
+      </c>
+      <c r="C122" t="s">
+        <v>538</v>
+      </c>
+      <c r="D122" t="s">
+        <v>581</v>
+      </c>
+      <c r="E122" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" t="s">
+        <v>597</v>
+      </c>
+      <c r="B123" t="s">
+        <v>589</v>
+      </c>
+      <c r="C123" t="s">
+        <v>539</v>
+      </c>
+      <c r="D123" t="s">
+        <v>581</v>
+      </c>
+      <c r="E123" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" t="s">
+        <v>597</v>
+      </c>
+      <c r="B124" t="s">
+        <v>590</v>
+      </c>
+      <c r="C124" t="s">
+        <v>540</v>
+      </c>
+      <c r="D124" t="s">
+        <v>581</v>
+      </c>
+      <c r="E124" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" t="s">
+        <v>597</v>
+      </c>
+      <c r="B125" t="s">
+        <v>591</v>
+      </c>
+      <c r="C125" t="s">
+        <v>541</v>
+      </c>
+      <c r="D125" t="s">
+        <v>581</v>
+      </c>
+      <c r="E125" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" t="s">
+        <v>597</v>
+      </c>
+      <c r="B126" t="s">
+        <v>592</v>
+      </c>
+      <c r="C126" t="s">
+        <v>542</v>
+      </c>
+      <c r="D126" t="s">
+        <v>581</v>
+      </c>
+      <c r="E126" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" t="s">
+        <v>597</v>
+      </c>
+      <c r="B127" t="s">
+        <v>593</v>
+      </c>
+      <c r="C127" t="s">
+        <v>543</v>
+      </c>
+      <c r="D127" t="s">
+        <v>581</v>
+      </c>
+      <c r="E127" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" t="s">
+        <v>597</v>
+      </c>
+      <c r="B128" t="s">
+        <v>594</v>
+      </c>
+      <c r="C128" t="s">
+        <v>544</v>
+      </c>
+      <c r="D128" t="s">
+        <v>581</v>
+      </c>
+      <c r="E128" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" t="s">
+        <v>598</v>
+      </c>
+      <c r="B129" t="s">
+        <v>579</v>
+      </c>
+      <c r="C129" t="s">
+        <v>546</v>
+      </c>
+      <c r="D129" t="s">
+        <v>581</v>
+      </c>
+      <c r="E129" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" t="s">
+        <v>598</v>
+      </c>
+      <c r="B130" t="s">
+        <v>583</v>
+      </c>
+      <c r="C130" t="s">
+        <v>547</v>
+      </c>
+      <c r="D130" t="s">
+        <v>581</v>
+      </c>
+      <c r="E130" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" t="s">
+        <v>598</v>
+      </c>
+      <c r="B131" t="s">
+        <v>585</v>
+      </c>
+      <c r="C131" t="s">
+        <v>548</v>
+      </c>
+      <c r="D131" t="s">
+        <v>581</v>
+      </c>
+      <c r="E131" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" t="s">
+        <v>598</v>
+      </c>
+      <c r="B132" t="s">
+        <v>586</v>
+      </c>
+      <c r="C132" t="s">
+        <v>549</v>
+      </c>
+      <c r="D132" t="s">
+        <v>581</v>
+      </c>
+      <c r="E132" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" t="s">
+        <v>598</v>
+      </c>
+      <c r="B133" t="s">
+        <v>587</v>
+      </c>
+      <c r="C133" t="s">
+        <v>550</v>
+      </c>
+      <c r="D133" t="s">
+        <v>581</v>
+      </c>
+      <c r="E133" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" t="s">
+        <v>598</v>
+      </c>
+      <c r="B134" t="s">
+        <v>588</v>
+      </c>
+      <c r="C134" t="s">
+        <v>551</v>
+      </c>
+      <c r="D134" t="s">
+        <v>581</v>
+      </c>
+      <c r="E134" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" t="s">
+        <v>598</v>
+      </c>
+      <c r="B135" t="s">
+        <v>589</v>
+      </c>
+      <c r="C135" t="s">
+        <v>552</v>
+      </c>
+      <c r="D135" t="s">
+        <v>581</v>
+      </c>
+      <c r="E135" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" t="s">
+        <v>598</v>
+      </c>
+      <c r="B136" t="s">
+        <v>590</v>
+      </c>
+      <c r="C136" t="s">
+        <v>553</v>
+      </c>
+      <c r="D136" t="s">
+        <v>581</v>
+      </c>
+      <c r="E136" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" t="s">
+        <v>598</v>
+      </c>
+      <c r="B137" t="s">
+        <v>591</v>
+      </c>
+      <c r="C137" t="s">
+        <v>554</v>
+      </c>
+      <c r="D137" t="s">
+        <v>581</v>
+      </c>
+      <c r="E137" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" t="s">
+        <v>598</v>
+      </c>
+      <c r="B138" t="s">
+        <v>592</v>
+      </c>
+      <c r="C138" t="s">
+        <v>555</v>
+      </c>
+      <c r="D138" t="s">
+        <v>581</v>
+      </c>
+      <c r="E138" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" t="s">
+        <v>598</v>
+      </c>
+      <c r="B139" t="s">
+        <v>593</v>
+      </c>
+      <c r="C139" t="s">
+        <v>556</v>
+      </c>
+      <c r="D139" t="s">
+        <v>581</v>
+      </c>
+      <c r="E139" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" t="s">
+        <v>598</v>
+      </c>
+      <c r="B140" t="s">
+        <v>594</v>
+      </c>
+      <c r="C140" t="s">
+        <v>557</v>
+      </c>
+      <c r="D140" t="s">
+        <v>581</v>
+      </c>
+      <c r="E140" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" t="s">
+        <v>599</v>
+      </c>
+      <c r="B141" t="s">
+        <v>579</v>
+      </c>
+      <c r="C141" t="s">
+        <v>559</v>
+      </c>
+      <c r="D141" t="s">
+        <v>581</v>
+      </c>
+      <c r="E141" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" t="s">
+        <v>599</v>
+      </c>
+      <c r="B142" t="s">
+        <v>583</v>
+      </c>
+      <c r="C142" t="s">
+        <v>560</v>
+      </c>
+      <c r="D142" t="s">
+        <v>581</v>
+      </c>
+      <c r="E142" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" t="s">
+        <v>599</v>
+      </c>
+      <c r="B143" t="s">
+        <v>585</v>
+      </c>
+      <c r="C143" t="s">
+        <v>561</v>
+      </c>
+      <c r="D143" t="s">
+        <v>581</v>
+      </c>
+      <c r="E143" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" t="s">
+        <v>599</v>
+      </c>
+      <c r="B144" t="s">
+        <v>586</v>
+      </c>
+      <c r="C144" t="s">
+        <v>562</v>
+      </c>
+      <c r="D144" t="s">
+        <v>581</v>
+      </c>
+      <c r="E144" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" t="s">
+        <v>599</v>
+      </c>
+      <c r="B145" t="s">
+        <v>587</v>
+      </c>
+      <c r="C145" t="s">
+        <v>563</v>
+      </c>
+      <c r="D145" t="s">
+        <v>581</v>
+      </c>
+      <c r="E145" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" t="s">
+        <v>599</v>
+      </c>
+      <c r="B146" t="s">
+        <v>588</v>
+      </c>
+      <c r="C146" t="s">
+        <v>564</v>
+      </c>
+      <c r="D146" t="s">
+        <v>581</v>
+      </c>
+      <c r="E146" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" t="s">
+        <v>599</v>
+      </c>
+      <c r="B147" t="s">
+        <v>589</v>
+      </c>
+      <c r="C147" t="s">
+        <v>565</v>
+      </c>
+      <c r="D147" t="s">
+        <v>581</v>
+      </c>
+      <c r="E147" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" t="s">
+        <v>599</v>
+      </c>
+      <c r="B148" t="s">
+        <v>590</v>
+      </c>
+      <c r="C148" t="s">
+        <v>566</v>
+      </c>
+      <c r="D148" t="s">
+        <v>581</v>
+      </c>
+      <c r="E148" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" t="s">
+        <v>599</v>
+      </c>
+      <c r="B149" t="s">
+        <v>591</v>
+      </c>
+      <c r="C149" t="s">
+        <v>567</v>
+      </c>
+      <c r="D149" t="s">
+        <v>581</v>
+      </c>
+      <c r="E149" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" t="s">
+        <v>599</v>
+      </c>
+      <c r="B150" t="s">
+        <v>592</v>
+      </c>
+      <c r="C150" t="s">
+        <v>568</v>
+      </c>
+      <c r="D150" t="s">
+        <v>581</v>
+      </c>
+      <c r="E150" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" t="s">
+        <v>599</v>
+      </c>
+      <c r="B151" t="s">
+        <v>593</v>
+      </c>
+      <c r="C151" t="s">
+        <v>569</v>
+      </c>
+      <c r="D151" t="s">
+        <v>581</v>
+      </c>
+      <c r="E151" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" t="s">
+        <v>599</v>
+      </c>
+      <c r="B152" t="s">
+        <v>594</v>
+      </c>
+      <c r="C152" t="s">
+        <v>570</v>
+      </c>
+      <c r="D152" t="s">
+        <v>581</v>
+      </c>
+      <c r="E152" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" t="s">
+        <v>600</v>
+      </c>
+      <c r="B153" t="s">
+        <v>589</v>
+      </c>
+      <c r="C153" t="s">
+        <v>572</v>
+      </c>
+      <c r="D153" t="s">
+        <v>581</v>
+      </c>
+      <c r="E153" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" t="s">
+        <v>600</v>
+      </c>
+      <c r="B154" t="s">
+        <v>590</v>
+      </c>
+      <c r="C154" t="s">
+        <v>573</v>
+      </c>
+      <c r="D154" t="s">
+        <v>581</v>
+      </c>
+      <c r="E154" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" t="s">
+        <v>600</v>
+      </c>
+      <c r="B155" t="s">
+        <v>591</v>
+      </c>
+      <c r="C155" t="s">
+        <v>574</v>
+      </c>
+      <c r="D155" t="s">
+        <v>581</v>
+      </c>
+      <c r="E155" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" t="s">
+        <v>600</v>
+      </c>
+      <c r="B156" t="s">
+        <v>592</v>
+      </c>
+      <c r="C156" t="s">
+        <v>575</v>
+      </c>
+      <c r="D156" t="s">
+        <v>581</v>
+      </c>
+      <c r="E156" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" t="s">
+        <v>600</v>
+      </c>
+      <c r="B157" t="s">
+        <v>593</v>
+      </c>
+      <c r="C157" t="s">
+        <v>576</v>
+      </c>
+      <c r="D157" t="s">
+        <v>581</v>
+      </c>
+      <c r="E157" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" t="s">
+        <v>600</v>
+      </c>
+      <c r="B158" t="s">
+        <v>594</v>
+      </c>
+      <c r="C158" t="s">
+        <v>577</v>
+      </c>
+      <c r="D158" t="s">
+        <v>581</v>
+      </c>
+      <c r="E158" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" t="s">
+        <v>474</v>
+      </c>
+      <c r="B161" t="s">
+        <v>475</v>
+      </c>
+      <c r="C161" t="s">
+        <v>476</v>
+      </c>
+      <c r="D161" t="s">
+        <v>477</v>
+      </c>
+      <c r="E161" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" t="s">
+        <v>571</v>
+      </c>
+      <c r="B162" t="s">
+        <v>480</v>
+      </c>
+      <c r="C162" t="s">
+        <v>481</v>
+      </c>
+      <c r="D162" t="s">
+        <v>603</v>
+      </c>
+      <c r="E162" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" t="s">
+        <v>571</v>
+      </c>
+      <c r="B163" t="s">
+        <v>484</v>
+      </c>
+      <c r="C163" t="s">
+        <v>485</v>
+      </c>
+      <c r="D163" t="s">
+        <v>603</v>
+      </c>
+      <c r="E163" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" t="s">
+        <v>571</v>
+      </c>
+      <c r="B164" t="s">
+        <v>486</v>
+      </c>
+      <c r="C164" t="s">
+        <v>653</v>
+      </c>
+      <c r="D164" t="s">
+        <v>603</v>
+      </c>
+      <c r="E164" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" t="s">
+        <v>571</v>
+      </c>
+      <c r="B165" t="s">
+        <v>488</v>
+      </c>
+      <c r="C165" t="s">
+        <v>654</v>
+      </c>
+      <c r="D165" t="s">
+        <v>603</v>
+      </c>
+      <c r="E165" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" t="s">
+        <v>571</v>
+      </c>
+      <c r="B166" t="s">
+        <v>490</v>
+      </c>
+      <c r="C166" t="s">
+        <v>655</v>
+      </c>
+      <c r="D166" t="s">
+        <v>603</v>
+      </c>
+      <c r="E166" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" t="s">
+        <v>571</v>
+      </c>
+      <c r="B167" t="s">
+        <v>492</v>
+      </c>
+      <c r="C167" t="s">
+        <v>656</v>
+      </c>
+      <c r="D167" t="s">
+        <v>603</v>
+      </c>
+      <c r="E167" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" t="s">
+        <v>571</v>
+      </c>
+      <c r="B168" t="s">
+        <v>494</v>
+      </c>
+      <c r="C168" t="s">
+        <v>657</v>
+      </c>
+      <c r="D168" t="s">
+        <v>603</v>
+      </c>
+      <c r="E168" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" t="s">
+        <v>571</v>
+      </c>
+      <c r="B169" t="s">
+        <v>496</v>
+      </c>
+      <c r="C169" t="s">
+        <v>658</v>
+      </c>
+      <c r="D169" t="s">
+        <v>603</v>
+      </c>
+      <c r="E169" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" t="s">
+        <v>571</v>
+      </c>
+      <c r="B170" t="s">
+        <v>498</v>
+      </c>
+      <c r="C170" t="s">
+        <v>659</v>
+      </c>
+      <c r="D170" t="s">
+        <v>603</v>
+      </c>
+      <c r="E170" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" t="s">
+        <v>571</v>
+      </c>
+      <c r="B171" t="s">
+        <v>500</v>
+      </c>
+      <c r="C171" t="s">
+        <v>660</v>
+      </c>
+      <c r="D171" t="s">
+        <v>603</v>
+      </c>
+      <c r="E171" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" t="s">
+        <v>571</v>
+      </c>
+      <c r="B172" t="s">
+        <v>502</v>
+      </c>
+      <c r="C172" t="s">
+        <v>661</v>
+      </c>
+      <c r="D172" t="s">
+        <v>603</v>
+      </c>
+      <c r="E172" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" t="s">
+        <v>571</v>
+      </c>
+      <c r="B173" t="s">
+        <v>504</v>
+      </c>
+      <c r="C173" t="s">
+        <v>662</v>
+      </c>
+      <c r="D173" t="s">
+        <v>603</v>
+      </c>
+      <c r="E173" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" t="s">
+        <v>604</v>
+      </c>
+      <c r="B174" t="s">
+        <v>480</v>
+      </c>
+      <c r="C174" t="s">
+        <v>663</v>
+      </c>
+      <c r="D174" t="s">
+        <v>603</v>
+      </c>
+      <c r="E174" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" t="s">
+        <v>604</v>
+      </c>
+      <c r="B175" t="s">
+        <v>484</v>
+      </c>
+      <c r="C175" t="s">
+        <v>664</v>
+      </c>
+      <c r="D175" t="s">
+        <v>603</v>
+      </c>
+      <c r="E175" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" t="s">
+        <v>604</v>
+      </c>
+      <c r="B176" t="s">
+        <v>486</v>
+      </c>
+      <c r="C176" t="s">
+        <v>605</v>
+      </c>
+      <c r="D176" t="s">
+        <v>603</v>
+      </c>
+      <c r="E176" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" t="s">
+        <v>604</v>
+      </c>
+      <c r="B177" t="s">
+        <v>488</v>
+      </c>
+      <c r="C177" t="s">
+        <v>606</v>
+      </c>
+      <c r="D177" t="s">
+        <v>603</v>
+      </c>
+      <c r="E177" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" t="s">
+        <v>604</v>
+      </c>
+      <c r="B178" t="s">
+        <v>490</v>
+      </c>
+      <c r="C178" t="s">
+        <v>607</v>
+      </c>
+      <c r="D178" t="s">
+        <v>603</v>
+      </c>
+      <c r="E178" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" t="s">
+        <v>604</v>
+      </c>
+      <c r="B179" t="s">
+        <v>492</v>
+      </c>
+      <c r="C179" t="s">
+        <v>608</v>
+      </c>
+      <c r="D179" t="s">
+        <v>603</v>
+      </c>
+      <c r="E179" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" t="s">
+        <v>604</v>
+      </c>
+      <c r="B180" t="s">
+        <v>494</v>
+      </c>
+      <c r="C180" t="s">
+        <v>609</v>
+      </c>
+      <c r="D180" t="s">
+        <v>603</v>
+      </c>
+      <c r="E180" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" t="s">
+        <v>604</v>
+      </c>
+      <c r="B181" t="s">
+        <v>496</v>
+      </c>
+      <c r="C181" t="s">
+        <v>610</v>
+      </c>
+      <c r="D181" t="s">
+        <v>603</v>
+      </c>
+      <c r="E181" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" t="s">
+        <v>604</v>
+      </c>
+      <c r="B182" t="s">
+        <v>498</v>
+      </c>
+      <c r="C182" t="s">
+        <v>611</v>
+      </c>
+      <c r="D182" t="s">
+        <v>603</v>
+      </c>
+      <c r="E182" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" t="s">
+        <v>604</v>
+      </c>
+      <c r="B183" t="s">
+        <v>500</v>
+      </c>
+      <c r="C183" t="s">
+        <v>612</v>
+      </c>
+      <c r="D183" t="s">
+        <v>603</v>
+      </c>
+      <c r="E183" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" t="s">
+        <v>604</v>
+      </c>
+      <c r="B184" t="s">
+        <v>502</v>
+      </c>
+      <c r="C184" t="s">
+        <v>613</v>
+      </c>
+      <c r="D184" t="s">
+        <v>603</v>
+      </c>
+      <c r="E184" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" t="s">
+        <v>604</v>
+      </c>
+      <c r="B185" t="s">
+        <v>504</v>
+      </c>
+      <c r="C185" t="s">
+        <v>614</v>
+      </c>
+      <c r="D185" t="s">
+        <v>603</v>
+      </c>
+      <c r="E185" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" t="s">
+        <v>615</v>
+      </c>
+      <c r="B186" t="s">
+        <v>480</v>
+      </c>
+      <c r="C186" t="s">
+        <v>616</v>
+      </c>
+      <c r="D186" t="s">
+        <v>603</v>
+      </c>
+      <c r="E186" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" t="s">
+        <v>615</v>
+      </c>
+      <c r="B187" t="s">
+        <v>484</v>
+      </c>
+      <c r="C187" t="s">
+        <v>617</v>
+      </c>
+      <c r="D187" t="s">
+        <v>603</v>
+      </c>
+      <c r="E187" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" t="s">
+        <v>615</v>
+      </c>
+      <c r="B188" t="s">
+        <v>486</v>
+      </c>
+      <c r="C188" t="s">
+        <v>665</v>
+      </c>
+      <c r="D188" t="s">
+        <v>603</v>
+      </c>
+      <c r="E188" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" t="s">
+        <v>615</v>
+      </c>
+      <c r="B189" t="s">
+        <v>488</v>
+      </c>
+      <c r="C189" t="s">
+        <v>666</v>
+      </c>
+      <c r="D189" t="s">
+        <v>603</v>
+      </c>
+      <c r="E189" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" t="s">
+        <v>615</v>
+      </c>
+      <c r="B190" t="s">
+        <v>490</v>
+      </c>
+      <c r="C190" t="s">
+        <v>667</v>
+      </c>
+      <c r="D190" t="s">
+        <v>603</v>
+      </c>
+      <c r="E190" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" t="s">
+        <v>615</v>
+      </c>
+      <c r="B191" t="s">
+        <v>492</v>
+      </c>
+      <c r="C191" t="s">
+        <v>668</v>
+      </c>
+      <c r="D191" t="s">
+        <v>603</v>
+      </c>
+      <c r="E191" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" t="s">
+        <v>615</v>
+      </c>
+      <c r="B192" t="s">
+        <v>494</v>
+      </c>
+      <c r="C192" t="s">
+        <v>669</v>
+      </c>
+      <c r="D192" t="s">
+        <v>603</v>
+      </c>
+      <c r="E192" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" t="s">
+        <v>615</v>
+      </c>
+      <c r="B193" t="s">
+        <v>496</v>
+      </c>
+      <c r="C193" t="s">
+        <v>670</v>
+      </c>
+      <c r="D193" t="s">
+        <v>603</v>
+      </c>
+      <c r="E193" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" t="s">
+        <v>615</v>
+      </c>
+      <c r="B194" t="s">
+        <v>498</v>
+      </c>
+      <c r="C194" t="s">
+        <v>671</v>
+      </c>
+      <c r="D194" t="s">
+        <v>603</v>
+      </c>
+      <c r="E194" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" t="s">
+        <v>615</v>
+      </c>
+      <c r="B195" t="s">
+        <v>500</v>
+      </c>
+      <c r="C195" t="s">
+        <v>672</v>
+      </c>
+      <c r="D195" t="s">
+        <v>603</v>
+      </c>
+      <c r="E195" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" t="s">
+        <v>615</v>
+      </c>
+      <c r="B196" t="s">
+        <v>502</v>
+      </c>
+      <c r="C196" t="s">
+        <v>673</v>
+      </c>
+      <c r="D196" t="s">
+        <v>603</v>
+      </c>
+      <c r="E196" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" t="s">
+        <v>615</v>
+      </c>
+      <c r="B197" t="s">
+        <v>504</v>
+      </c>
+      <c r="C197" t="s">
+        <v>674</v>
+      </c>
+      <c r="D197" t="s">
+        <v>603</v>
+      </c>
+      <c r="E197" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" t="s">
+        <v>618</v>
+      </c>
+      <c r="B198" t="s">
+        <v>480</v>
+      </c>
+      <c r="C198" t="s">
+        <v>675</v>
+      </c>
+      <c r="D198" t="s">
+        <v>603</v>
+      </c>
+      <c r="E198" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" t="s">
+        <v>618</v>
+      </c>
+      <c r="B199" t="s">
+        <v>484</v>
+      </c>
+      <c r="C199" t="s">
+        <v>676</v>
+      </c>
+      <c r="D199" t="s">
+        <v>603</v>
+      </c>
+      <c r="E199" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" t="s">
+        <v>618</v>
+      </c>
+      <c r="B200" t="s">
+        <v>486</v>
+      </c>
+      <c r="C200" t="s">
+        <v>619</v>
+      </c>
+      <c r="D200" t="s">
+        <v>603</v>
+      </c>
+      <c r="E200" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" t="s">
+        <v>618</v>
+      </c>
+      <c r="B201" t="s">
+        <v>488</v>
+      </c>
+      <c r="C201" t="s">
+        <v>620</v>
+      </c>
+      <c r="D201" t="s">
+        <v>603</v>
+      </c>
+      <c r="E201" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" t="s">
+        <v>618</v>
+      </c>
+      <c r="B202" t="s">
+        <v>490</v>
+      </c>
+      <c r="C202" t="s">
+        <v>621</v>
+      </c>
+      <c r="D202" t="s">
+        <v>603</v>
+      </c>
+      <c r="E202" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" t="s">
+        <v>618</v>
+      </c>
+      <c r="B203" t="s">
+        <v>492</v>
+      </c>
+      <c r="C203" t="s">
+        <v>622</v>
+      </c>
+      <c r="D203" t="s">
+        <v>603</v>
+      </c>
+      <c r="E203" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" t="s">
+        <v>618</v>
+      </c>
+      <c r="B204" t="s">
+        <v>494</v>
+      </c>
+      <c r="C204" t="s">
+        <v>623</v>
+      </c>
+      <c r="D204" t="s">
+        <v>603</v>
+      </c>
+      <c r="E204" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" t="s">
+        <v>618</v>
+      </c>
+      <c r="B205" t="s">
+        <v>496</v>
+      </c>
+      <c r="C205" t="s">
+        <v>624</v>
+      </c>
+      <c r="D205" t="s">
+        <v>603</v>
+      </c>
+      <c r="E205" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" t="s">
+        <v>618</v>
+      </c>
+      <c r="B206" t="s">
+        <v>498</v>
+      </c>
+      <c r="C206" t="s">
+        <v>625</v>
+      </c>
+      <c r="D206" t="s">
+        <v>603</v>
+      </c>
+      <c r="E206" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" t="s">
+        <v>618</v>
+      </c>
+      <c r="B207" t="s">
+        <v>500</v>
+      </c>
+      <c r="C207" t="s">
+        <v>626</v>
+      </c>
+      <c r="D207" t="s">
+        <v>603</v>
+      </c>
+      <c r="E207" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" t="s">
+        <v>618</v>
+      </c>
+      <c r="B208" t="s">
+        <v>502</v>
+      </c>
+      <c r="C208" t="s">
+        <v>627</v>
+      </c>
+      <c r="D208" t="s">
+        <v>603</v>
+      </c>
+      <c r="E208" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" t="s">
+        <v>618</v>
+      </c>
+      <c r="B209" t="s">
+        <v>504</v>
+      </c>
+      <c r="C209" t="s">
+        <v>628</v>
+      </c>
+      <c r="D209" t="s">
+        <v>603</v>
+      </c>
+      <c r="E209" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" t="s">
+        <v>629</v>
+      </c>
+      <c r="B210" t="s">
+        <v>480</v>
+      </c>
+      <c r="C210" t="s">
+        <v>630</v>
+      </c>
+      <c r="D210" t="s">
+        <v>603</v>
+      </c>
+      <c r="E210" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" t="s">
+        <v>629</v>
+      </c>
+      <c r="B211" t="s">
+        <v>484</v>
+      </c>
+      <c r="C211" t="s">
+        <v>631</v>
+      </c>
+      <c r="D211" t="s">
+        <v>603</v>
+      </c>
+      <c r="E211" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" t="s">
+        <v>629</v>
+      </c>
+      <c r="B212" t="s">
+        <v>486</v>
+      </c>
+      <c r="C212" t="s">
+        <v>677</v>
+      </c>
+      <c r="D212" t="s">
+        <v>603</v>
+      </c>
+      <c r="E212" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" t="s">
+        <v>629</v>
+      </c>
+      <c r="B213" t="s">
+        <v>488</v>
+      </c>
+      <c r="C213" t="s">
+        <v>678</v>
+      </c>
+      <c r="D213" t="s">
+        <v>603</v>
+      </c>
+      <c r="E213" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" t="s">
+        <v>629</v>
+      </c>
+      <c r="B214" t="s">
+        <v>490</v>
+      </c>
+      <c r="C214" t="s">
+        <v>679</v>
+      </c>
+      <c r="D214" t="s">
+        <v>603</v>
+      </c>
+      <c r="E214" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" t="s">
+        <v>629</v>
+      </c>
+      <c r="B215" t="s">
+        <v>492</v>
+      </c>
+      <c r="C215" t="s">
+        <v>680</v>
+      </c>
+      <c r="D215" t="s">
+        <v>603</v>
+      </c>
+      <c r="E215" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" t="s">
+        <v>629</v>
+      </c>
+      <c r="B216" t="s">
+        <v>494</v>
+      </c>
+      <c r="C216" t="s">
+        <v>681</v>
+      </c>
+      <c r="D216" t="s">
+        <v>603</v>
+      </c>
+      <c r="E216" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" t="s">
+        <v>629</v>
+      </c>
+      <c r="B217" t="s">
+        <v>496</v>
+      </c>
+      <c r="C217" t="s">
+        <v>682</v>
+      </c>
+      <c r="D217" t="s">
+        <v>603</v>
+      </c>
+      <c r="E217" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" t="s">
+        <v>629</v>
+      </c>
+      <c r="B218" t="s">
+        <v>498</v>
+      </c>
+      <c r="C218" t="s">
+        <v>683</v>
+      </c>
+      <c r="D218" t="s">
+        <v>603</v>
+      </c>
+      <c r="E218" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" t="s">
+        <v>629</v>
+      </c>
+      <c r="B219" t="s">
+        <v>500</v>
+      </c>
+      <c r="C219" t="s">
+        <v>684</v>
+      </c>
+      <c r="D219" t="s">
+        <v>603</v>
+      </c>
+      <c r="E219" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" t="s">
+        <v>629</v>
+      </c>
+      <c r="B220" t="s">
+        <v>502</v>
+      </c>
+      <c r="C220" t="s">
+        <v>685</v>
+      </c>
+      <c r="D220" t="s">
+        <v>603</v>
+      </c>
+      <c r="E220" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" t="s">
+        <v>629</v>
+      </c>
+      <c r="B221" t="s">
+        <v>504</v>
+      </c>
+      <c r="C221" t="s">
+        <v>686</v>
+      </c>
+      <c r="D221" t="s">
+        <v>603</v>
+      </c>
+      <c r="E221" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" t="s">
+        <v>632</v>
+      </c>
+      <c r="B222" t="s">
+        <v>480</v>
+      </c>
+      <c r="C222" t="s">
+        <v>687</v>
+      </c>
+      <c r="D222" t="s">
+        <v>603</v>
+      </c>
+      <c r="E222" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" t="s">
+        <v>632</v>
+      </c>
+      <c r="B223" t="s">
+        <v>484</v>
+      </c>
+      <c r="C223" t="s">
+        <v>688</v>
+      </c>
+      <c r="D223" t="s">
+        <v>603</v>
+      </c>
+      <c r="E223" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" t="s">
+        <v>632</v>
+      </c>
+      <c r="B224" t="s">
+        <v>486</v>
+      </c>
+      <c r="C224" t="s">
+        <v>689</v>
+      </c>
+      <c r="D224" t="s">
+        <v>603</v>
+      </c>
+      <c r="E224" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" t="s">
+        <v>632</v>
+      </c>
+      <c r="B225" t="s">
+        <v>488</v>
+      </c>
+      <c r="C225" t="s">
+        <v>690</v>
+      </c>
+      <c r="D225" t="s">
+        <v>603</v>
+      </c>
+      <c r="E225" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" t="s">
+        <v>632</v>
+      </c>
+      <c r="B226" t="s">
+        <v>490</v>
+      </c>
+      <c r="C226" t="s">
+        <v>633</v>
+      </c>
+      <c r="D226" t="s">
+        <v>603</v>
+      </c>
+      <c r="E226" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" t="s">
+        <v>632</v>
+      </c>
+      <c r="B227" t="s">
+        <v>492</v>
+      </c>
+      <c r="C227" t="s">
+        <v>634</v>
+      </c>
+      <c r="D227" t="s">
+        <v>603</v>
+      </c>
+      <c r="E227" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" t="s">
+        <v>632</v>
+      </c>
+      <c r="B228" t="s">
+        <v>494</v>
+      </c>
+      <c r="C228" t="s">
+        <v>635</v>
+      </c>
+      <c r="D228" t="s">
+        <v>603</v>
+      </c>
+      <c r="E228" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" t="s">
+        <v>632</v>
+      </c>
+      <c r="B229" t="s">
+        <v>496</v>
+      </c>
+      <c r="C229" t="s">
+        <v>636</v>
+      </c>
+      <c r="D229" t="s">
+        <v>603</v>
+      </c>
+      <c r="E229" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" t="s">
+        <v>632</v>
+      </c>
+      <c r="B230" t="s">
+        <v>498</v>
+      </c>
+      <c r="C230" t="s">
+        <v>637</v>
+      </c>
+      <c r="D230" t="s">
+        <v>603</v>
+      </c>
+      <c r="E230" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" t="s">
+        <v>632</v>
+      </c>
+      <c r="B231" t="s">
+        <v>500</v>
+      </c>
+      <c r="C231" t="s">
+        <v>638</v>
+      </c>
+      <c r="D231" t="s">
+        <v>603</v>
+      </c>
+      <c r="E231" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" t="s">
+        <v>632</v>
+      </c>
+      <c r="B232" t="s">
+        <v>502</v>
+      </c>
+      <c r="C232" t="s">
+        <v>639</v>
+      </c>
+      <c r="D232" t="s">
+        <v>603</v>
+      </c>
+      <c r="E232" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" t="s">
+        <v>632</v>
+      </c>
+      <c r="B233" t="s">
+        <v>504</v>
+      </c>
+      <c r="C233" t="s">
+        <v>640</v>
+      </c>
+      <c r="D233" t="s">
+        <v>603</v>
+      </c>
+      <c r="E233" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" t="s">
+        <v>479</v>
+      </c>
+      <c r="B234" t="s">
+        <v>494</v>
+      </c>
+      <c r="C234" t="s">
+        <v>641</v>
+      </c>
+      <c r="D234" t="s">
+        <v>603</v>
+      </c>
+      <c r="E234" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" t="s">
+        <v>479</v>
+      </c>
+      <c r="B235" t="s">
+        <v>496</v>
+      </c>
+      <c r="C235" t="s">
+        <v>642</v>
+      </c>
+      <c r="D235" t="s">
+        <v>603</v>
+      </c>
+      <c r="E235" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" t="s">
+        <v>479</v>
+      </c>
+      <c r="B236" t="s">
+        <v>498</v>
+      </c>
+      <c r="C236" t="s">
+        <v>643</v>
+      </c>
+      <c r="D236" t="s">
+        <v>603</v>
+      </c>
+      <c r="E236" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" t="s">
+        <v>479</v>
+      </c>
+      <c r="B237" t="s">
+        <v>500</v>
+      </c>
+      <c r="C237" t="s">
+        <v>644</v>
+      </c>
+      <c r="D237" t="s">
+        <v>603</v>
+      </c>
+      <c r="E237" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" t="s">
+        <v>479</v>
+      </c>
+      <c r="B238" t="s">
+        <v>502</v>
+      </c>
+      <c r="C238" t="s">
+        <v>645</v>
+      </c>
+      <c r="D238" t="s">
+        <v>603</v>
+      </c>
+      <c r="E238" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" t="s">
+        <v>479</v>
+      </c>
+      <c r="B239" t="s">
+        <v>504</v>
+      </c>
+      <c r="C239" t="s">
+        <v>646</v>
+      </c>
+      <c r="D239" t="s">
+        <v>603</v>
+      </c>
+      <c r="E239" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" t="s">
+        <v>600</v>
+      </c>
+      <c r="B240" t="s">
+        <v>579</v>
+      </c>
+      <c r="C240" t="s">
+        <v>481</v>
+      </c>
+      <c r="D240" t="s">
+        <v>647</v>
+      </c>
+      <c r="E240" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" t="s">
+        <v>600</v>
+      </c>
+      <c r="B241" t="s">
+        <v>583</v>
+      </c>
+      <c r="C241" t="s">
+        <v>485</v>
+      </c>
+      <c r="D241" t="s">
+        <v>647</v>
+      </c>
+      <c r="E241" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" t="s">
+        <v>600</v>
+      </c>
+      <c r="B242" t="s">
+        <v>585</v>
+      </c>
+      <c r="C242" t="s">
+        <v>653</v>
+      </c>
+      <c r="D242" t="s">
+        <v>647</v>
+      </c>
+      <c r="E242" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" t="s">
+        <v>600</v>
+      </c>
+      <c r="B243" t="s">
+        <v>586</v>
+      </c>
+      <c r="C243" t="s">
+        <v>654</v>
+      </c>
+      <c r="D243" t="s">
+        <v>647</v>
+      </c>
+      <c r="E243" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" t="s">
+        <v>600</v>
+      </c>
+      <c r="B244" t="s">
+        <v>587</v>
+      </c>
+      <c r="C244" t="s">
+        <v>655</v>
+      </c>
+      <c r="D244" t="s">
+        <v>647</v>
+      </c>
+      <c r="E244" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" t="s">
+        <v>600</v>
+      </c>
+      <c r="B245" t="s">
+        <v>588</v>
+      </c>
+      <c r="C245" t="s">
+        <v>656</v>
+      </c>
+      <c r="D245" t="s">
+        <v>647</v>
+      </c>
+      <c r="E245" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" t="s">
+        <v>600</v>
+      </c>
+      <c r="B246" t="s">
+        <v>589</v>
+      </c>
+      <c r="C246" t="s">
+        <v>657</v>
+      </c>
+      <c r="D246" t="s">
+        <v>647</v>
+      </c>
+      <c r="E246" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" t="s">
+        <v>600</v>
+      </c>
+      <c r="B247" t="s">
+        <v>590</v>
+      </c>
+      <c r="C247" t="s">
+        <v>658</v>
+      </c>
+      <c r="D247" t="s">
+        <v>647</v>
+      </c>
+      <c r="E247" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" t="s">
+        <v>600</v>
+      </c>
+      <c r="B248" t="s">
+        <v>591</v>
+      </c>
+      <c r="C248" t="s">
+        <v>659</v>
+      </c>
+      <c r="D248" t="s">
+        <v>647</v>
+      </c>
+      <c r="E248" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" t="s">
+        <v>600</v>
+      </c>
+      <c r="B249" t="s">
+        <v>592</v>
+      </c>
+      <c r="C249" t="s">
+        <v>660</v>
+      </c>
+      <c r="D249" t="s">
+        <v>647</v>
+      </c>
+      <c r="E249" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" t="s">
+        <v>600</v>
+      </c>
+      <c r="B250" t="s">
+        <v>593</v>
+      </c>
+      <c r="C250" t="s">
+        <v>661</v>
+      </c>
+      <c r="D250" t="s">
+        <v>647</v>
+      </c>
+      <c r="E250" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" t="s">
+        <v>600</v>
+      </c>
+      <c r="B251" t="s">
+        <v>594</v>
+      </c>
+      <c r="C251" t="s">
+        <v>662</v>
+      </c>
+      <c r="D251" t="s">
+        <v>647</v>
+      </c>
+      <c r="E251" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" t="s">
+        <v>648</v>
+      </c>
+      <c r="B252" t="s">
+        <v>579</v>
+      </c>
+      <c r="C252" t="s">
+        <v>663</v>
+      </c>
+      <c r="D252" t="s">
+        <v>647</v>
+      </c>
+      <c r="E252" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" t="s">
+        <v>648</v>
+      </c>
+      <c r="B253" t="s">
+        <v>583</v>
+      </c>
+      <c r="C253" t="s">
+        <v>664</v>
+      </c>
+      <c r="D253" t="s">
+        <v>647</v>
+      </c>
+      <c r="E253" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" t="s">
+        <v>648</v>
+      </c>
+      <c r="B254" t="s">
+        <v>585</v>
+      </c>
+      <c r="C254" t="s">
+        <v>605</v>
+      </c>
+      <c r="D254" t="s">
+        <v>647</v>
+      </c>
+      <c r="E254" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" t="s">
+        <v>648</v>
+      </c>
+      <c r="B255" t="s">
+        <v>586</v>
+      </c>
+      <c r="C255" t="s">
+        <v>606</v>
+      </c>
+      <c r="D255" t="s">
+        <v>647</v>
+      </c>
+      <c r="E255" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" t="s">
+        <v>648</v>
+      </c>
+      <c r="B256" t="s">
+        <v>587</v>
+      </c>
+      <c r="C256" t="s">
+        <v>607</v>
+      </c>
+      <c r="D256" t="s">
+        <v>647</v>
+      </c>
+      <c r="E256" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" t="s">
+        <v>648</v>
+      </c>
+      <c r="B257" t="s">
+        <v>588</v>
+      </c>
+      <c r="C257" t="s">
+        <v>608</v>
+      </c>
+      <c r="D257" t="s">
+        <v>647</v>
+      </c>
+      <c r="E257" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" t="s">
+        <v>648</v>
+      </c>
+      <c r="B258" t="s">
+        <v>589</v>
+      </c>
+      <c r="C258" t="s">
+        <v>609</v>
+      </c>
+      <c r="D258" t="s">
+        <v>647</v>
+      </c>
+      <c r="E258" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" t="s">
+        <v>648</v>
+      </c>
+      <c r="B259" t="s">
+        <v>590</v>
+      </c>
+      <c r="C259" t="s">
+        <v>610</v>
+      </c>
+      <c r="D259" t="s">
+        <v>647</v>
+      </c>
+      <c r="E259" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" t="s">
+        <v>648</v>
+      </c>
+      <c r="B260" t="s">
+        <v>591</v>
+      </c>
+      <c r="C260" t="s">
+        <v>611</v>
+      </c>
+      <c r="D260" t="s">
+        <v>647</v>
+      </c>
+      <c r="E260" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" t="s">
+        <v>648</v>
+      </c>
+      <c r="B261" t="s">
+        <v>592</v>
+      </c>
+      <c r="C261" t="s">
+        <v>612</v>
+      </c>
+      <c r="D261" t="s">
+        <v>647</v>
+      </c>
+      <c r="E261" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" t="s">
+        <v>648</v>
+      </c>
+      <c r="B262" t="s">
+        <v>593</v>
+      </c>
+      <c r="C262" t="s">
+        <v>613</v>
+      </c>
+      <c r="D262" t="s">
+        <v>647</v>
+      </c>
+      <c r="E262" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" t="s">
+        <v>648</v>
+      </c>
+      <c r="B263" t="s">
+        <v>594</v>
+      </c>
+      <c r="C263" t="s">
+        <v>614</v>
+      </c>
+      <c r="D263" t="s">
+        <v>647</v>
+      </c>
+      <c r="E263" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" t="s">
+        <v>649</v>
+      </c>
+      <c r="B264" t="s">
+        <v>579</v>
+      </c>
+      <c r="C264" t="s">
+        <v>616</v>
+      </c>
+      <c r="D264" t="s">
+        <v>647</v>
+      </c>
+      <c r="E264" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" t="s">
+        <v>649</v>
+      </c>
+      <c r="B265" t="s">
+        <v>583</v>
+      </c>
+      <c r="C265" t="s">
+        <v>617</v>
+      </c>
+      <c r="D265" t="s">
+        <v>647</v>
+      </c>
+      <c r="E265" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" t="s">
+        <v>649</v>
+      </c>
+      <c r="B266" t="s">
+        <v>585</v>
+      </c>
+      <c r="C266" t="s">
+        <v>665</v>
+      </c>
+      <c r="D266" t="s">
+        <v>647</v>
+      </c>
+      <c r="E266" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" t="s">
+        <v>649</v>
+      </c>
+      <c r="B267" t="s">
+        <v>586</v>
+      </c>
+      <c r="C267" t="s">
+        <v>666</v>
+      </c>
+      <c r="D267" t="s">
+        <v>647</v>
+      </c>
+      <c r="E267" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" t="s">
+        <v>649</v>
+      </c>
+      <c r="B268" t="s">
+        <v>587</v>
+      </c>
+      <c r="C268" t="s">
+        <v>667</v>
+      </c>
+      <c r="D268" t="s">
+        <v>647</v>
+      </c>
+      <c r="E268" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" t="s">
+        <v>649</v>
+      </c>
+      <c r="B269" t="s">
+        <v>588</v>
+      </c>
+      <c r="C269" t="s">
+        <v>668</v>
+      </c>
+      <c r="D269" t="s">
+        <v>647</v>
+      </c>
+      <c r="E269" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" t="s">
+        <v>649</v>
+      </c>
+      <c r="B270" t="s">
+        <v>589</v>
+      </c>
+      <c r="C270" t="s">
+        <v>669</v>
+      </c>
+      <c r="D270" t="s">
+        <v>647</v>
+      </c>
+      <c r="E270" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" t="s">
+        <v>649</v>
+      </c>
+      <c r="B271" t="s">
+        <v>590</v>
+      </c>
+      <c r="C271" t="s">
+        <v>670</v>
+      </c>
+      <c r="D271" t="s">
+        <v>647</v>
+      </c>
+      <c r="E271" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" t="s">
+        <v>649</v>
+      </c>
+      <c r="B272" t="s">
+        <v>591</v>
+      </c>
+      <c r="C272" t="s">
+        <v>671</v>
+      </c>
+      <c r="D272" t="s">
+        <v>647</v>
+      </c>
+      <c r="E272" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" t="s">
+        <v>649</v>
+      </c>
+      <c r="B273" t="s">
+        <v>592</v>
+      </c>
+      <c r="C273" t="s">
+        <v>672</v>
+      </c>
+      <c r="D273" t="s">
+        <v>647</v>
+      </c>
+      <c r="E273" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" t="s">
+        <v>649</v>
+      </c>
+      <c r="B274" t="s">
+        <v>593</v>
+      </c>
+      <c r="C274" t="s">
+        <v>673</v>
+      </c>
+      <c r="D274" t="s">
+        <v>647</v>
+      </c>
+      <c r="E274" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" t="s">
+        <v>649</v>
+      </c>
+      <c r="B275" t="s">
+        <v>594</v>
+      </c>
+      <c r="C275" t="s">
+        <v>674</v>
+      </c>
+      <c r="D275" t="s">
+        <v>647</v>
+      </c>
+      <c r="E275" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" t="s">
+        <v>650</v>
+      </c>
+      <c r="B276" t="s">
+        <v>579</v>
+      </c>
+      <c r="C276" t="s">
+        <v>675</v>
+      </c>
+      <c r="D276" t="s">
+        <v>647</v>
+      </c>
+      <c r="E276" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" t="s">
+        <v>650</v>
+      </c>
+      <c r="B277" t="s">
+        <v>583</v>
+      </c>
+      <c r="C277" t="s">
+        <v>676</v>
+      </c>
+      <c r="D277" t="s">
+        <v>647</v>
+      </c>
+      <c r="E277" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" t="s">
+        <v>650</v>
+      </c>
+      <c r="B278" t="s">
+        <v>585</v>
+      </c>
+      <c r="C278" t="s">
+        <v>619</v>
+      </c>
+      <c r="D278" t="s">
+        <v>647</v>
+      </c>
+      <c r="E278" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" t="s">
+        <v>650</v>
+      </c>
+      <c r="B279" t="s">
+        <v>586</v>
+      </c>
+      <c r="C279" t="s">
+        <v>620</v>
+      </c>
+      <c r="D279" t="s">
+        <v>647</v>
+      </c>
+      <c r="E279" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" t="s">
+        <v>650</v>
+      </c>
+      <c r="B280" t="s">
+        <v>587</v>
+      </c>
+      <c r="C280" t="s">
+        <v>621</v>
+      </c>
+      <c r="D280" t="s">
+        <v>647</v>
+      </c>
+      <c r="E280" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" t="s">
+        <v>650</v>
+      </c>
+      <c r="B281" t="s">
+        <v>588</v>
+      </c>
+      <c r="C281" t="s">
+        <v>622</v>
+      </c>
+      <c r="D281" t="s">
+        <v>647</v>
+      </c>
+      <c r="E281" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" t="s">
+        <v>650</v>
+      </c>
+      <c r="B282" t="s">
+        <v>589</v>
+      </c>
+      <c r="C282" t="s">
+        <v>623</v>
+      </c>
+      <c r="D282" t="s">
+        <v>647</v>
+      </c>
+      <c r="E282" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" t="s">
+        <v>650</v>
+      </c>
+      <c r="B283" t="s">
+        <v>590</v>
+      </c>
+      <c r="C283" t="s">
+        <v>624</v>
+      </c>
+      <c r="D283" t="s">
+        <v>647</v>
+      </c>
+      <c r="E283" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" t="s">
+        <v>650</v>
+      </c>
+      <c r="B284" t="s">
+        <v>591</v>
+      </c>
+      <c r="C284" t="s">
+        <v>625</v>
+      </c>
+      <c r="D284" t="s">
+        <v>647</v>
+      </c>
+      <c r="E284" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" t="s">
+        <v>650</v>
+      </c>
+      <c r="B285" t="s">
+        <v>592</v>
+      </c>
+      <c r="C285" t="s">
+        <v>626</v>
+      </c>
+      <c r="D285" t="s">
+        <v>647</v>
+      </c>
+      <c r="E285" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" t="s">
+        <v>650</v>
+      </c>
+      <c r="B286" t="s">
+        <v>593</v>
+      </c>
+      <c r="C286" t="s">
+        <v>627</v>
+      </c>
+      <c r="D286" t="s">
+        <v>647</v>
+      </c>
+      <c r="E286" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" t="s">
+        <v>650</v>
+      </c>
+      <c r="B287" t="s">
+        <v>594</v>
+      </c>
+      <c r="C287" t="s">
+        <v>628</v>
+      </c>
+      <c r="D287" t="s">
+        <v>647</v>
+      </c>
+      <c r="E287" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" t="s">
+        <v>651</v>
+      </c>
+      <c r="B288" t="s">
+        <v>579</v>
+      </c>
+      <c r="C288" t="s">
+        <v>630</v>
+      </c>
+      <c r="D288" t="s">
+        <v>647</v>
+      </c>
+      <c r="E288" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" t="s">
+        <v>651</v>
+      </c>
+      <c r="B289" t="s">
+        <v>583</v>
+      </c>
+      <c r="C289" t="s">
+        <v>631</v>
+      </c>
+      <c r="D289" t="s">
+        <v>647</v>
+      </c>
+      <c r="E289" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290" t="s">
+        <v>651</v>
+      </c>
+      <c r="B290" t="s">
+        <v>585</v>
+      </c>
+      <c r="C290" t="s">
+        <v>677</v>
+      </c>
+      <c r="D290" t="s">
+        <v>647</v>
+      </c>
+      <c r="E290" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" t="s">
+        <v>651</v>
+      </c>
+      <c r="B291" t="s">
+        <v>586</v>
+      </c>
+      <c r="C291" t="s">
+        <v>678</v>
+      </c>
+      <c r="D291" t="s">
+        <v>647</v>
+      </c>
+      <c r="E291" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" t="s">
+        <v>651</v>
+      </c>
+      <c r="B292" t="s">
+        <v>587</v>
+      </c>
+      <c r="C292" t="s">
+        <v>679</v>
+      </c>
+      <c r="D292" t="s">
+        <v>647</v>
+      </c>
+      <c r="E292" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293" t="s">
+        <v>651</v>
+      </c>
+      <c r="B293" t="s">
+        <v>588</v>
+      </c>
+      <c r="C293" t="s">
+        <v>680</v>
+      </c>
+      <c r="D293" t="s">
+        <v>647</v>
+      </c>
+      <c r="E293" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294" t="s">
+        <v>651</v>
+      </c>
+      <c r="B294" t="s">
+        <v>589</v>
+      </c>
+      <c r="C294" t="s">
+        <v>681</v>
+      </c>
+      <c r="D294" t="s">
+        <v>647</v>
+      </c>
+      <c r="E294" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295" t="s">
+        <v>651</v>
+      </c>
+      <c r="B295" t="s">
+        <v>590</v>
+      </c>
+      <c r="C295" t="s">
+        <v>682</v>
+      </c>
+      <c r="D295" t="s">
+        <v>647</v>
+      </c>
+      <c r="E295" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296" t="s">
+        <v>651</v>
+      </c>
+      <c r="B296" t="s">
+        <v>591</v>
+      </c>
+      <c r="C296" t="s">
+        <v>683</v>
+      </c>
+      <c r="D296" t="s">
+        <v>647</v>
+      </c>
+      <c r="E296" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297" t="s">
+        <v>651</v>
+      </c>
+      <c r="B297" t="s">
+        <v>592</v>
+      </c>
+      <c r="C297" t="s">
+        <v>684</v>
+      </c>
+      <c r="D297" t="s">
+        <v>647</v>
+      </c>
+      <c r="E297" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298" t="s">
+        <v>651</v>
+      </c>
+      <c r="B298" t="s">
+        <v>593</v>
+      </c>
+      <c r="C298" t="s">
+        <v>685</v>
+      </c>
+      <c r="D298" t="s">
+        <v>647</v>
+      </c>
+      <c r="E298" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299" t="s">
+        <v>651</v>
+      </c>
+      <c r="B299" t="s">
+        <v>594</v>
+      </c>
+      <c r="C299" t="s">
+        <v>686</v>
+      </c>
+      <c r="D299" t="s">
+        <v>647</v>
+      </c>
+      <c r="E299" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300" t="s">
+        <v>652</v>
+      </c>
+      <c r="B300" t="s">
+        <v>579</v>
+      </c>
+      <c r="C300" t="s">
+        <v>687</v>
+      </c>
+      <c r="D300" t="s">
+        <v>647</v>
+      </c>
+      <c r="E300" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301" t="s">
+        <v>652</v>
+      </c>
+      <c r="B301" t="s">
+        <v>583</v>
+      </c>
+      <c r="C301" t="s">
+        <v>688</v>
+      </c>
+      <c r="D301" t="s">
+        <v>647</v>
+      </c>
+      <c r="E301" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302" t="s">
+        <v>652</v>
+      </c>
+      <c r="B302" t="s">
+        <v>585</v>
+      </c>
+      <c r="C302" t="s">
+        <v>689</v>
+      </c>
+      <c r="D302" t="s">
+        <v>647</v>
+      </c>
+      <c r="E302" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303" t="s">
+        <v>652</v>
+      </c>
+      <c r="B303" t="s">
+        <v>586</v>
+      </c>
+      <c r="C303" t="s">
+        <v>690</v>
+      </c>
+      <c r="D303" t="s">
+        <v>647</v>
+      </c>
+      <c r="E303" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304" t="s">
+        <v>652</v>
+      </c>
+      <c r="B304" t="s">
+        <v>587</v>
+      </c>
+      <c r="C304" t="s">
+        <v>633</v>
+      </c>
+      <c r="D304" t="s">
+        <v>647</v>
+      </c>
+      <c r="E304" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" t="s">
+        <v>652</v>
+      </c>
+      <c r="B305" t="s">
+        <v>588</v>
+      </c>
+      <c r="C305" t="s">
+        <v>634</v>
+      </c>
+      <c r="D305" t="s">
+        <v>647</v>
+      </c>
+      <c r="E305" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" t="s">
+        <v>652</v>
+      </c>
+      <c r="B306" t="s">
+        <v>589</v>
+      </c>
+      <c r="C306" t="s">
+        <v>635</v>
+      </c>
+      <c r="D306" t="s">
+        <v>647</v>
+      </c>
+      <c r="E306" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" t="s">
+        <v>652</v>
+      </c>
+      <c r="B307" t="s">
+        <v>590</v>
+      </c>
+      <c r="C307" t="s">
+        <v>636</v>
+      </c>
+      <c r="D307" t="s">
+        <v>647</v>
+      </c>
+      <c r="E307" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" t="s">
+        <v>652</v>
+      </c>
+      <c r="B308" t="s">
+        <v>591</v>
+      </c>
+      <c r="C308" t="s">
+        <v>637</v>
+      </c>
+      <c r="D308" t="s">
+        <v>647</v>
+      </c>
+      <c r="E308" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" t="s">
+        <v>652</v>
+      </c>
+      <c r="B309" t="s">
+        <v>592</v>
+      </c>
+      <c r="C309" t="s">
+        <v>638</v>
+      </c>
+      <c r="D309" t="s">
+        <v>647</v>
+      </c>
+      <c r="E309" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" t="s">
+        <v>652</v>
+      </c>
+      <c r="B310" t="s">
+        <v>593</v>
+      </c>
+      <c r="C310" t="s">
+        <v>639</v>
+      </c>
+      <c r="D310" t="s">
+        <v>647</v>
+      </c>
+      <c r="E310" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" t="s">
+        <v>652</v>
+      </c>
+      <c r="B311" t="s">
+        <v>594</v>
+      </c>
+      <c r="C311" t="s">
+        <v>640</v>
+      </c>
+      <c r="D311" t="s">
+        <v>647</v>
+      </c>
+      <c r="E311" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312" t="s">
+        <v>578</v>
+      </c>
+      <c r="B312" t="s">
+        <v>589</v>
+      </c>
+      <c r="C312" t="s">
+        <v>641</v>
+      </c>
+      <c r="D312" t="s">
+        <v>647</v>
+      </c>
+      <c r="E312" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313" t="s">
+        <v>578</v>
+      </c>
+      <c r="B313" t="s">
+        <v>590</v>
+      </c>
+      <c r="C313" t="s">
+        <v>642</v>
+      </c>
+      <c r="D313" t="s">
+        <v>647</v>
+      </c>
+      <c r="E313" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" t="s">
+        <v>578</v>
+      </c>
+      <c r="B314" t="s">
+        <v>591</v>
+      </c>
+      <c r="C314" t="s">
+        <v>643</v>
+      </c>
+      <c r="D314" t="s">
+        <v>647</v>
+      </c>
+      <c r="E314" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315" t="s">
+        <v>578</v>
+      </c>
+      <c r="B315" t="s">
+        <v>592</v>
+      </c>
+      <c r="C315" t="s">
+        <v>644</v>
+      </c>
+      <c r="D315" t="s">
+        <v>647</v>
+      </c>
+      <c r="E315" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" t="s">
+        <v>578</v>
+      </c>
+      <c r="B316" t="s">
+        <v>593</v>
+      </c>
+      <c r="C316" t="s">
+        <v>645</v>
+      </c>
+      <c r="D316" t="s">
+        <v>647</v>
+      </c>
+      <c r="E316" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317" t="s">
+        <v>578</v>
+      </c>
+      <c r="B317" t="s">
+        <v>594</v>
+      </c>
+      <c r="C317" t="s">
+        <v>646</v>
+      </c>
+      <c r="D317" t="s">
+        <v>647</v>
+      </c>
+      <c r="E317" t="s">
+        <v>582</v>
       </c>
     </row>
   </sheetData>
